--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\MyProjects\TASystemsAPIs\src\test\resources\testDataFiles\SteeringCompanyAPI_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4F46DD-28A6-4A02-B8B1-38DE7AC2A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A745637-CDC8-4941-9456-F5F938A158F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="API_Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Steering_Base_URL</t>
+  </si>
+  <si>
+    <t>https://api-demo.np.transporticonline.com/steeringcompanies/v1</t>
   </si>
 </sst>
 </file>
@@ -476,14 +482,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A12BEA-8F73-4430-93DA-A8D97F072989}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -530,6 +536,14 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -545,6 +559,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{D2DC504D-2258-47E3-A0C9-4CDF34CF7C05}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{6816A466-095B-451E-A576-25DCEFCA8C6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -554,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B428D2E5-5BCB-4B9B-AFAF-56D8BA9991FD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\MyProjects\TASystemsAPIs\src\test\resources\testDataFiles\SteeringCompanyAPI_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A745637-CDC8-4941-9456-F5F938A158F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F1B06-6E4E-4274-8CAA-8204857271C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>
@@ -85,13 +85,367 @@
   </si>
   <si>
     <t>https://api-demo.np.transporticonline.com/steeringcompanies/v1</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>/lookups/cities</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>/lookups/hotels</t>
+  </si>
+  <si>
+    <t>routes</t>
+  </si>
+  <si>
+    <t>/lookups/routes</t>
+  </si>
+  <si>
+    <t>sectors</t>
+  </si>
+  <si>
+    <t>/lookups/sectors</t>
+  </si>
+  <si>
+    <t>terminals</t>
+  </si>
+  <si>
+    <t>/lookups/terminals</t>
+  </si>
+  <si>
+    <t>ports</t>
+  </si>
+  <si>
+    <t>/lookups/ports</t>
+  </si>
+  <si>
+    <t>vehicleTypes</t>
+  </si>
+  <si>
+    <t>/lookups/vehicleTypes</t>
+  </si>
+  <si>
+    <t>vehicleCategories</t>
+  </si>
+  <si>
+    <t>/lookups/vehicleCategories</t>
+  </si>
+  <si>
+    <t>GetAllPolicies</t>
+  </si>
+  <si>
+    <t>/policies</t>
+  </si>
+  <si>
+    <t>AddCancellationPolicies</t>
+  </si>
+  <si>
+    <t>/policies/cancellation</t>
+  </si>
+  <si>
+    <t>UpdateCancellationPoliciesById</t>
+  </si>
+  <si>
+    <t>/policies/cancellation/</t>
+  </si>
+  <si>
+    <t>GetCancellationPoliciesById</t>
+  </si>
+  <si>
+    <t>AddPaymentPolicies</t>
+  </si>
+  <si>
+    <t>/policies/payment</t>
+  </si>
+  <si>
+    <t>UpdatePaymentPoliciesById</t>
+  </si>
+  <si>
+    <t>/policies/payment/</t>
+  </si>
+  <si>
+    <t>GetPaymentPoliciesById</t>
+  </si>
+  <si>
+    <t>AddUsagePolicies</t>
+  </si>
+  <si>
+    <t>/policies/usage</t>
+  </si>
+  <si>
+    <t>UpdateUsagePoliciesById</t>
+  </si>
+  <si>
+    <t>/policies/usage/</t>
+  </si>
+  <si>
+    <t>GetUsagePoliciesById</t>
+  </si>
+  <si>
+    <t>AddTaxPolicies</t>
+  </si>
+  <si>
+    <t>/policies/tax</t>
+  </si>
+  <si>
+    <t>UpdateTaxPoliciesById</t>
+  </si>
+  <si>
+    <t>/policies/tax/</t>
+  </si>
+  <si>
+    <t>GetTaxPoliciesById</t>
+  </si>
+  <si>
+    <t>AddGeneralPolicies</t>
+  </si>
+  <si>
+    <t>/policies/general</t>
+  </si>
+  <si>
+    <t>UpdateGeneralPoliciesById</t>
+  </si>
+  <si>
+    <t>/policies/general/</t>
+  </si>
+  <si>
+    <t>GetGeneralPoliciesById</t>
+  </si>
+  <si>
+    <t>periodProgramTemplates</t>
+  </si>
+  <si>
+    <t>/periodProgramTemplates</t>
+  </si>
+  <si>
+    <t>periodProgramTemplatesByID</t>
+  </si>
+  <si>
+    <t>/periodProgramTemplates/</t>
+  </si>
+  <si>
+    <t>CreationalPeriods</t>
+  </si>
+  <si>
+    <t>/creationalPeriods</t>
+  </si>
+  <si>
+    <t>CreationalPeriodsByID</t>
+  </si>
+  <si>
+    <t>/creationalPeriods/</t>
+  </si>
+  <si>
+    <t>AddPeriodPrograms</t>
+  </si>
+  <si>
+    <t>/periodPrograms</t>
+  </si>
+  <si>
+    <t>AddPeriodProgramsWithPolicies</t>
+  </si>
+  <si>
+    <t>GetPeriodProgramsById</t>
+  </si>
+  <si>
+    <t>/periodPrograms/</t>
+  </si>
+  <si>
+    <t>UpdatePeriodProgramsById</t>
+  </si>
+  <si>
+    <t>Get all periodPrograms</t>
+  </si>
+  <si>
+    <t>GetReservationsById</t>
+  </si>
+  <si>
+    <t>/reservations/</t>
+  </si>
+  <si>
+    <t>Get all operationOrders</t>
+  </si>
+  <si>
+    <t>/operationOrders</t>
+  </si>
+  <si>
+    <t>GetOperationOrdersById</t>
+  </si>
+  <si>
+    <t>/operationOrders/</t>
+  </si>
+  <si>
+    <t>AddApproveForOperationOrders</t>
+  </si>
+  <si>
+    <t>/operationOrders/approve</t>
+  </si>
+  <si>
+    <t>AddAssignVehicleForOperationOrders</t>
+  </si>
+  <si>
+    <t>/operationOrders/assignVehicle</t>
+  </si>
+  <si>
+    <t>TokenRequest</t>
+  </si>
+  <si>
+    <t>Get all OTAs</t>
+  </si>
+  <si>
+    <t>Get all commission</t>
+  </si>
+  <si>
+    <t>Get commission by OTA code</t>
+  </si>
+  <si>
+    <t>Add commission</t>
+  </si>
+  <si>
+    <t>/otas</t>
+  </si>
+  <si>
+    <t>/commissions</t>
+  </si>
+  <si>
+    <t>/commissions/</t>
+  </si>
+  <si>
+    <t>Out of scope</t>
+  </si>
+  <si>
+    <t>UnAuthorized</t>
+  </si>
+  <si>
+    <t>Server Error Side</t>
+  </si>
+  <si>
+    <t>Bad Request</t>
+  </si>
+  <si>
+    <t>Validation Error</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>GetPeriodProgramsWithPoliciesById</t>
+  </si>
+  <si>
+    <t>UpdatePeriodProgramsWithPoliciesById</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_cities_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_cities_Unauthorized_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_hotels_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_routes_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_sectors_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_terminals_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_ports_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_vehicleTypes_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_vehicleCategories_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Lookups_policies_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Cancel_Policy_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Payment_Policy_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Usage_Policy_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Tax_Policy_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/General_Policy_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/PeriodProgramTemplates_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/PeriodProgramTemplatesByID_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/CreationalPeriods_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/CreationalPeriodsByID_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/PeriodProgram_without_policies_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/PeriodProgram_with_policies_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/GetAllPeriodProgram_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Reservations_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/OTAs_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Commission_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Commission_by_OTAid_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Add_Commission_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Token_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/Token_Unauthorized_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/InvalidTokenRequest_Unauthorized_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/ServerSideError_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/BadRequestError_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/ValidationError_schema.json</t>
+  </si>
+  <si>
+    <t>Schemas/NotFoundError_schema.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +476,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +503,14 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -151,17 +518,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,17 +998,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A12BEA-8F73-4430-93DA-A8D97F072989}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -508,12 +1028,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -532,10 +1052,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -545,11 +1065,591 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\MyProjects\TASystemsAPIs\src\test\resources\testDataFiles\SteeringCompanyAPI_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F1B06-6E4E-4274-8CAA-8204857271C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D00DFD9-B9AA-47A9-A348-B09D0EB33784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
   </bookViews>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A12BEA-8F73-4430-93DA-A8D97F072989}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\MyProjects\TASystemsAPIs\src\test\resources\testDataFiles\SteeringCompanyAPI_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D00DFD9-B9AA-47A9-A348-B09D0EB33784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D18748-8F94-4151-9BFA-287CC1090F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="API_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="TokenAPI_TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="CancelPolicy_TestData" sheetId="3" r:id="rId2"/>
+    <sheet name="TokenAPI_TestData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="159">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>
@@ -72,9 +73,6 @@
     <t>Data3</t>
   </si>
   <si>
-    <t>Settings</t>
-  </si>
-  <si>
     <t>tokhi2</t>
   </si>
   <si>
@@ -439,6 +437,84 @@
   </si>
   <si>
     <t>Schemas/NotFoundError_schema.json</t>
+  </si>
+  <si>
+    <t>TC_Type</t>
+  </si>
+  <si>
+    <t>nameArabic</t>
+  </si>
+  <si>
+    <t>nameEnglish</t>
+  </si>
+  <si>
+    <t>descriptionArabic</t>
+  </si>
+  <si>
+    <t>descriptionEnglish</t>
+  </si>
+  <si>
+    <t>chargeUnit</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>chargeType</t>
+  </si>
+  <si>
+    <t>chargeValue</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Normal Cancel Policy 1</t>
+  </si>
+  <si>
+    <t>تعريف سياسية الغاء عادية</t>
+  </si>
+  <si>
+    <t>سياسية الغاء عادية 1</t>
+  </si>
+  <si>
+    <t>سياسية الغاء عادية 2</t>
+  </si>
+  <si>
+    <t>Normal Cancel Policy 2</t>
+  </si>
+  <si>
+    <t>Description Cancel Policy</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>TC_Valid_1</t>
+  </si>
+  <si>
+    <t>TC_Valid_2</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>InvalidSchema</t>
+  </si>
+  <si>
+    <t>Schemas/GetAllPolicies_schema.json</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A12BEA-8F73-4430-93DA-A8D97F072989}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,19 +1094,17 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1059,10 +1133,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1073,582 +1147,582 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C17" s="10" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C19" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C24" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C25" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="C27" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="C28" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C30" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="C31" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="C33" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="C34" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="C35" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="C36" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="C37" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="C39" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C44" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1666,11 +1740,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA91A3-71A2-40E1-9E38-A4CCFCF2C64C}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B428D2E5-5BCB-4B9B-AFAF-56D8BA9991FD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1701,10 +1902,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\MyProjects\TASystemsAPIs\src\test\resources\testDataFiles\SteeringCompanyAPI_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD801033-C683-4171-BE4D-AC6872DA15A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199385A5-78E1-4AD5-8D59-159362699218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
   </bookViews>
@@ -17,9 +17,12 @@
     <sheet name="Policy_TestData" sheetId="3" r:id="rId2"/>
     <sheet name="TokenAPI_TestData" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Policy_TestData!$N$1:$N$125</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="318">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>
@@ -622,18 +625,12 @@
     <t>Add_Cancel_Valid_3</t>
   </si>
   <si>
-    <t>Add_Cancel_Invalid_1</t>
-  </si>
-  <si>
     <t>Add_Payment_Valid_1</t>
   </si>
   <si>
     <t>Add_Payment_Valid_2</t>
   </si>
   <si>
-    <t>Add_Payment_Invalid_1</t>
-  </si>
-  <si>
     <t>Add_Tax_Valid_1</t>
   </si>
   <si>
@@ -719,14 +716,292 @@
   </si>
   <si>
     <t>Get_General_Valid_2</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_1</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_2</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_3</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_4</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_5</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_6</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_7</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_8</t>
+  </si>
+  <si>
+    <t>Add_Payment_Missing_1</t>
+  </si>
+  <si>
+    <t>Add_Payment_Missing_2</t>
+  </si>
+  <si>
+    <t>Add_Payment_Missing_3</t>
+  </si>
+  <si>
+    <t>Add_Payment_Missing_4</t>
+  </si>
+  <si>
+    <t>Add_Payment_Missing_5</t>
+  </si>
+  <si>
+    <t>Add_Payment_Missing_6</t>
+  </si>
+  <si>
+    <t>Add_Payment_Missing_7</t>
+  </si>
+  <si>
+    <t>Add_Tax_Missing_1</t>
+  </si>
+  <si>
+    <t>Add_Tax_Missing_2</t>
+  </si>
+  <si>
+    <t>Add_Tax_Missing_3</t>
+  </si>
+  <si>
+    <t>Add_Tax_Missing_4</t>
+  </si>
+  <si>
+    <t>Add_Tax_Missing_5</t>
+  </si>
+  <si>
+    <t>Add_Tax_Missing_6</t>
+  </si>
+  <si>
+    <t>Add_Tax_Missing_7</t>
+  </si>
+  <si>
+    <t>Add_Cancel_Missing_9</t>
+  </si>
+  <si>
+    <t>Add_Usage_Missing_1</t>
+  </si>
+  <si>
+    <t>Add_Usage_Missing_2</t>
+  </si>
+  <si>
+    <t>Add_Usage_Missing_3</t>
+  </si>
+  <si>
+    <t>Add_Usage_Missing_4</t>
+  </si>
+  <si>
+    <t>Add_Usage_Missing_5</t>
+  </si>
+  <si>
+    <t>Add_General_Missing_1</t>
+  </si>
+  <si>
+    <t>Add_General_Missing_2</t>
+  </si>
+  <si>
+    <t>Add_General_Missing_3</t>
+  </si>
+  <si>
+    <t>Add_General_Missing_4</t>
+  </si>
+  <si>
+    <t>Add_General_Missing_5</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_1</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_2</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_3</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_4</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_5</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_6</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_7</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_8</t>
+  </si>
+  <si>
+    <t>Update_Cancel_Missing_9</t>
+  </si>
+  <si>
+    <t>Update_Payment_Missing_1</t>
+  </si>
+  <si>
+    <t>Update_Payment_Missing_2</t>
+  </si>
+  <si>
+    <t>Update_Payment_Missing_3</t>
+  </si>
+  <si>
+    <t>Update_Payment_Missing_4</t>
+  </si>
+  <si>
+    <t>Update_Payment_Missing_5</t>
+  </si>
+  <si>
+    <t>Update_Payment_Missing_6</t>
+  </si>
+  <si>
+    <t>Update_Payment_Missing_7</t>
+  </si>
+  <si>
+    <t>Update_Tax_Missing_1</t>
+  </si>
+  <si>
+    <t>Update_Tax_Missing_2</t>
+  </si>
+  <si>
+    <t>Update_Tax_Missing_3</t>
+  </si>
+  <si>
+    <t>Update_Tax_Missing_4</t>
+  </si>
+  <si>
+    <t>Update_Tax_Missing_5</t>
+  </si>
+  <si>
+    <t>Update_Tax_Missing_6</t>
+  </si>
+  <si>
+    <t>Update_Tax_Missing_7</t>
+  </si>
+  <si>
+    <t>Update_Usage_Missing_1</t>
+  </si>
+  <si>
+    <t>Update_Usage_Missing_2</t>
+  </si>
+  <si>
+    <t>Update_Usage_Missing_3</t>
+  </si>
+  <si>
+    <t>Update_Usage_Missing_4</t>
+  </si>
+  <si>
+    <t>Update_Usage_Missing_5</t>
+  </si>
+  <si>
+    <t>Update_General_Missing_1</t>
+  </si>
+  <si>
+    <t>Update_General_Missing_2</t>
+  </si>
+  <si>
+    <t>Update_General_Missing_3</t>
+  </si>
+  <si>
+    <t>Update_General_Missing_4</t>
+  </si>
+  <si>
+    <t>Update_General_Missing_5</t>
+  </si>
+  <si>
+    <t>Cancellation policy.Name Arabic</t>
+  </si>
+  <si>
+    <t>Cancellation policy.Name English</t>
+  </si>
+  <si>
+    <t>Cancellation policy.Description Arabic</t>
+  </si>
+  <si>
+    <t>Cancellation policy.Description English</t>
+  </si>
+  <si>
+    <t>Couldn't find charge unit type with value</t>
+  </si>
+  <si>
+    <t>Cancellation policy.Deadline</t>
+  </si>
+  <si>
+    <t>Couldn't find charge type with value</t>
+  </si>
+  <si>
+    <t>Cancellation policy.Charge value</t>
+  </si>
+  <si>
+    <t>Payment policy.Name Arabic</t>
+  </si>
+  <si>
+    <t>Payment policy.Name English</t>
+  </si>
+  <si>
+    <t>Payment policy.Description Arabic</t>
+  </si>
+  <si>
+    <t>Payment policy.Description English</t>
+  </si>
+  <si>
+    <t>Couldn't find refund type with value</t>
+  </si>
+  <si>
+    <t>Cancellation policy.Cancellation policy id</t>
+  </si>
+  <si>
+    <t>Tax policy.Name Arabic</t>
+  </si>
+  <si>
+    <t>Tax policy.Name English</t>
+  </si>
+  <si>
+    <t>Tax policy.Description Arabic</t>
+  </si>
+  <si>
+    <t>Tax policy.Description English</t>
+  </si>
+  <si>
+    <t>Tax policy.Charge value</t>
+  </si>
+  <si>
+    <t>Usage policy.Name Arabic</t>
+  </si>
+  <si>
+    <t>Usage policy.Name English</t>
+  </si>
+  <si>
+    <t>Usage policy.Description Arabic</t>
+  </si>
+  <si>
+    <t>Usage policy.Description English</t>
+  </si>
+  <si>
+    <t>General policy.Name Arabic</t>
+  </si>
+  <si>
+    <t>General policy.Name English</t>
+  </si>
+  <si>
+    <t>General policy.Description Arabic</t>
+  </si>
+  <si>
+    <t>General policy.Description English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +1047,17 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="6">
@@ -955,7 +1241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -986,6 +1272,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,24 +1599,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A12BEA-8F73-4430-93DA-A8D97F072989}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="31.88671875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.5546875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="66.109375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="63.5546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.33203125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.109375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.77734375"/>
-    <col min="8" max="1025" customWidth="true" width="8.5546875"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1346,49 +1639,49 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="2" spans="1:7" s="3" customFormat="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1398,11 +1691,11 @@
       <c r="C9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1412,11 +1705,11 @@
       <c r="C10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1426,11 +1719,11 @@
       <c r="C11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1440,11 +1733,11 @@
       <c r="C12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1454,11 +1747,11 @@
       <c r="C13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1468,11 +1761,11 @@
       <c r="C14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1482,11 +1775,11 @@
       <c r="C15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1496,11 +1789,11 @@
       <c r="C16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" thickBot="1">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1805,7 @@
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1524,7 +1817,7 @@
       </c>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A19" s="20" t="s">
         <v>35</v>
       </c>
@@ -1536,7 +1829,7 @@
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1841,7 @@
       </c>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -1560,7 +1853,7 @@
       </c>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A22" s="20" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1865,7 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A23" s="20" t="s">
         <v>42</v>
       </c>
@@ -1584,7 +1877,7 @@
       </c>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1596,7 +1889,7 @@
       </c>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A25" s="20" t="s">
         <v>45</v>
       </c>
@@ -1608,7 +1901,7 @@
       </c>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A26" s="20" t="s">
         <v>47</v>
       </c>
@@ -1620,7 +1913,7 @@
       </c>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -1632,7 +1925,7 @@
       </c>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
@@ -1644,7 +1937,7 @@
       </c>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A29" s="20" t="s">
         <v>52</v>
       </c>
@@ -1656,7 +1949,7 @@
       </c>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -1668,7 +1961,7 @@
       </c>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>55</v>
       </c>
@@ -1680,7 +1973,7 @@
       </c>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="A32" s="20" t="s">
         <v>57</v>
       </c>
@@ -1692,7 +1985,7 @@
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
         <v>58</v>
       </c>
@@ -1704,7 +1997,7 @@
       </c>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
@@ -1716,7 +2009,7 @@
       </c>
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
@@ -1728,7 +2021,7 @@
       </c>
       <c r="D35" s="18"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -1740,7 +2033,7 @@
       </c>
       <c r="D36" s="18"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
         <v>66</v>
       </c>
@@ -1752,7 +2045,7 @@
       </c>
       <c r="D37" s="18"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
         <v>68</v>
       </c>
@@ -1764,7 +2057,7 @@
       </c>
       <c r="D38" s="18"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
@@ -1776,7 +2069,7 @@
       </c>
       <c r="D39" s="18"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
         <v>97</v>
       </c>
@@ -1788,7 +2081,7 @@
       </c>
       <c r="D40" s="18"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
         <v>71</v>
       </c>
@@ -1800,7 +2093,7 @@
       </c>
       <c r="D41" s="18"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
         <v>98</v>
       </c>
@@ -1812,7 +2105,7 @@
       </c>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
         <v>72</v>
       </c>
@@ -1824,7 +2117,7 @@
       </c>
       <c r="D43" s="18"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
         <v>73</v>
       </c>
@@ -1836,7 +2129,7 @@
       </c>
       <c r="D44" s="18"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="5" t="s">
         <v>84</v>
       </c>
@@ -1848,7 +2141,7 @@
       </c>
       <c r="D45" s="18"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
@@ -1860,7 +2153,7 @@
       </c>
       <c r="D46" s="18"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="5" t="s">
         <v>86</v>
       </c>
@@ -1872,7 +2165,7 @@
       </c>
       <c r="D47" s="18"/>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" thickBot="1">
       <c r="A48" s="7" t="s">
         <v>87</v>
       </c>
@@ -1884,7 +2177,7 @@
       </c>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" thickBot="1">
       <c r="A49" s="7" t="s">
         <v>83</v>
       </c>
@@ -1898,87 +2191,87 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C53" t="s" s="0">
+      <c r="C53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C54" t="s" s="0">
+      <c r="C54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C55" t="s" s="0">
+      <c r="C55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" thickBot="1">
       <c r="A56" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C56" t="s" s="0">
+      <c r="C56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B62" t="s" s="0">
+      <c r="B62" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1999,31 +2292,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA91A3-71A2-40E1-9E38-A4CCFCF2C64C}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.77734375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.88671875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.77734375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.6640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.33203125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.21875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.21875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.77734375"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.44140625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.6640625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="22.33203125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="14" max="14" customWidth="true" width="15.0"/>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>131</v>
       </c>
@@ -2063,962 +2358,2572 @@
       <c r="M1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>191</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>146</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>145</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>149</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
         <v>192</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>145</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>149</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
         <v>193</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>152</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>148</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>145</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>149</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
         <v>194</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19">
+        <v>1296</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20">
+        <v>1296</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21">
+        <v>1296</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22">
+        <v>1296</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
+      </c>
+      <c r="M23">
+        <v>1296</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>166</v>
+      </c>
+      <c r="I32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q34" s="26"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" t="s">
+        <v>143</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" t="s">
+        <v>170</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>180</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="N47" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" t="s">
+        <v>174</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" t="s">
+        <v>174</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" t="s">
+        <v>174</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" t="s">
+        <v>183</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" t="s">
         <v>152</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D60" t="s">
         <v>148</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E60" t="s">
         <v>145</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F60" t="s">
         <v>149</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G60" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="0">
-        <v>555</v>
-      </c>
-      <c r="I5" t="s" s="0">
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J60">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="K60">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" t="s">
+        <v>142</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>309</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>309</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>309</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>309</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>309</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>309</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>309</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K69">
+        <v>309</v>
+      </c>
+      <c r="N69" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="K70">
+        <v>309</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" t="s">
+        <v>159</v>
+      </c>
+      <c r="K72">
+        <v>194</v>
+      </c>
+      <c r="L72" t="s">
+        <v>162</v>
+      </c>
+      <c r="M72">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" t="s">
+        <v>159</v>
+      </c>
+      <c r="K73">
         <v>195</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="L73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" t="s">
         <v>155</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" t="s">
+        <v>159</v>
+      </c>
+      <c r="K75">
+        <v>194</v>
+      </c>
+      <c r="L75" t="s">
+        <v>162</v>
+      </c>
+      <c r="M75">
+        <v>1296</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
         <v>160</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="E76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76" t="s">
+        <v>159</v>
+      </c>
+      <c r="K76">
+        <v>194</v>
+      </c>
+      <c r="L76" t="s">
+        <v>162</v>
+      </c>
+      <c r="M76">
+        <v>1296</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" t="s">
         <v>156</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="F77" t="s">
+        <v>159</v>
+      </c>
+      <c r="K77">
+        <v>194</v>
+      </c>
+      <c r="L77" t="s">
+        <v>162</v>
+      </c>
+      <c r="M77">
+        <v>1296</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" t="s">
         <v>157</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="K78">
+        <v>194</v>
+      </c>
+      <c r="L78" t="s">
+        <v>162</v>
+      </c>
+      <c r="M78">
+        <v>1296</v>
+      </c>
+      <c r="N78" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" t="s">
         <v>159</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="K79">
+        <v>194</v>
+      </c>
+      <c r="M79">
+        <v>1296</v>
+      </c>
+      <c r="N79" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" t="s">
+        <v>159</v>
+      </c>
+      <c r="K80">
+        <v>194</v>
+      </c>
+      <c r="L80" t="s">
         <v>162</v>
       </c>
-      <c r="M7" s="0">
+      <c r="N80" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="K81">
+        <v>194</v>
+      </c>
+      <c r="N81" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" t="s">
+        <v>166</v>
+      </c>
+      <c r="I83" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83">
+        <v>10</v>
+      </c>
+      <c r="K83">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" t="s">
+        <v>166</v>
+      </c>
+      <c r="I84" t="s">
+        <v>143</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" t="s">
+        <v>166</v>
+      </c>
+      <c r="I86" t="s">
+        <v>143</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>121</v>
+      </c>
+      <c r="N86" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" t="s">
+        <v>166</v>
+      </c>
+      <c r="I87" t="s">
+        <v>143</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>121</v>
+      </c>
+      <c r="N87" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+      <c r="F88" t="s">
+        <v>166</v>
+      </c>
+      <c r="I88" t="s">
+        <v>143</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>121</v>
+      </c>
+      <c r="N88" s="27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" t="s">
+        <v>177</v>
+      </c>
+      <c r="I89" t="s">
+        <v>143</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>121</v>
+      </c>
+      <c r="N89" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" t="s">
+        <v>177</v>
+      </c>
+      <c r="F90" t="s">
+        <v>166</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>121</v>
+      </c>
+      <c r="N90" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>279</v>
+      </c>
+      <c r="B91" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" t="s">
+        <v>165</v>
+      </c>
+      <c r="E91" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91" t="s">
+        <v>166</v>
+      </c>
+      <c r="I91" t="s">
+        <v>143</v>
+      </c>
+      <c r="K91">
+        <v>121</v>
+      </c>
+      <c r="N91" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>280</v>
+      </c>
+      <c r="B92" t="s">
+        <v>164</v>
+      </c>
+      <c r="K92">
+        <v>121</v>
+      </c>
+      <c r="N92" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" t="s">
+        <v>169</v>
+      </c>
+      <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
+        <v>170</v>
+      </c>
+      <c r="K94">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
+        <v>170</v>
+      </c>
+      <c r="K95">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" t="s">
+        <v>169</v>
+      </c>
+      <c r="E97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
+        <v>170</v>
+      </c>
+      <c r="K97">
+        <v>192</v>
+      </c>
+      <c r="N97" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="E98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98" t="s">
+        <v>170</v>
+      </c>
+      <c r="K98">
+        <v>192</v>
+      </c>
+      <c r="N98" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99" t="s">
+        <v>170</v>
+      </c>
+      <c r="K99">
+        <v>192</v>
+      </c>
+      <c r="N99" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>284</v>
+      </c>
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" t="s">
+        <v>169</v>
+      </c>
+      <c r="E100" t="s">
+        <v>180</v>
+      </c>
+      <c r="K100">
+        <v>192</v>
+      </c>
+      <c r="N100" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="K101">
+        <v>192</v>
+      </c>
+      <c r="N101" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" t="s">
+        <v>173</v>
+      </c>
+      <c r="E103" t="s">
+        <v>183</v>
+      </c>
+      <c r="F103" t="s">
+        <v>174</v>
+      </c>
+      <c r="K103">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104" t="s">
+        <v>175</v>
+      </c>
+      <c r="E104" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" t="s">
+        <v>174</v>
+      </c>
+      <c r="K104">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>286</v>
+      </c>
+      <c r="B106" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106" t="s">
+        <v>183</v>
+      </c>
+      <c r="F106" t="s">
+        <v>174</v>
+      </c>
+      <c r="K106">
+        <v>171</v>
+      </c>
+      <c r="N106" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" t="s">
+        <v>182</v>
+      </c>
+      <c r="E107" t="s">
+        <v>183</v>
+      </c>
+      <c r="F107" t="s">
+        <v>174</v>
+      </c>
+      <c r="K107">
+        <v>171</v>
+      </c>
+      <c r="N107" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" t="s">
+        <v>173</v>
+      </c>
+      <c r="F108" t="s">
+        <v>174</v>
+      </c>
+      <c r="K108">
+        <v>171</v>
+      </c>
+      <c r="N108" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" t="s">
+        <v>173</v>
+      </c>
+      <c r="E109" t="s">
+        <v>183</v>
+      </c>
+      <c r="K109">
+        <v>171</v>
+      </c>
+      <c r="N109" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" t="s">
+        <v>172</v>
+      </c>
+      <c r="K110">
+        <v>171</v>
+      </c>
+      <c r="N110" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" t="s">
+        <v>145</v>
+      </c>
+      <c r="F112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G112" t="s">
+        <v>142</v>
+      </c>
+      <c r="H112">
+        <v>10</v>
+      </c>
+      <c r="I112" t="s">
+        <v>143</v>
+      </c>
+      <c r="J112">
+        <v>10</v>
+      </c>
+      <c r="K112">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" t="s">
+        <v>216</v>
+      </c>
+      <c r="B113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" t="s">
+        <v>147</v>
+      </c>
+      <c r="D113" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" t="s">
+        <v>145</v>
+      </c>
+      <c r="F113" t="s">
+        <v>149</v>
+      </c>
+      <c r="G113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H113">
+        <v>5</v>
+      </c>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" t="s">
+        <v>157</v>
+      </c>
+      <c r="F115" t="s">
+        <v>159</v>
+      </c>
+      <c r="K115">
+        <v>194</v>
+      </c>
+      <c r="L115" t="s">
+        <v>162</v>
+      </c>
+      <c r="M115">
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="B8" t="s" s="0">
+    <row r="116" spans="1:13">
+      <c r="A116" t="s">
+        <v>218</v>
+      </c>
+      <c r="B116" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C116" t="s">
         <v>161</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D116" t="s">
         <v>158</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E116" t="s">
         <v>157</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F116" t="s">
         <v>159</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="K116">
+        <v>195</v>
+      </c>
+      <c r="L116" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="L9" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="M9" s="0">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="B11" t="s" s="0">
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" t="s">
         <v>164</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C118" t="s">
         <v>176</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D118" t="s">
         <v>165</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E118" t="s">
         <v>177</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F118" t="s">
         <v>166</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I118" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J118">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
-        <v>199</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="K118">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" t="s">
         <v>164</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C119" t="s">
         <v>178</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D119" t="s">
         <v>167</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E119" t="s">
         <v>177</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F119" t="s">
         <v>166</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I119" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J119">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="K119">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" t="s">
+        <v>221</v>
+      </c>
+      <c r="B121" t="s">
         <v>168</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C121" t="s">
         <v>179</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D121" t="s">
         <v>169</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E121" t="s">
         <v>180</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F121" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
-        <v>202</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="K121">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" t="s">
         <v>168</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C122" t="s">
         <v>181</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D122" t="s">
         <v>171</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E122" t="s">
         <v>180</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F122" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="B19" t="s" s="0">
+      <c r="K122">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" t="s">
         <v>172</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C124" t="s">
         <v>182</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D124" t="s">
         <v>173</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E124" t="s">
         <v>183</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F124" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="B20" t="s" s="0">
+      <c r="K124">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" t="s">
         <v>172</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C125" t="s">
         <v>184</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D125" t="s">
         <v>175</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E125" t="s">
         <v>183</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F125" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
-        <v>206</v>
-      </c>
-      <c r="B21" t="s" s="0">
+      <c r="K125">
         <v>172</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="H23" s="0">
-        <v>10</v>
-      </c>
-      <c r="I23" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J23" s="0">
-        <v>10</v>
-      </c>
-      <c r="K23" s="0">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
-        <v>208</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="G24" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="H24" s="0">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J24" s="0">
-        <v>2</v>
-      </c>
-      <c r="K24" s="0">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="K26" s="0">
-        <v>194</v>
-      </c>
-      <c r="L26" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="M26" s="0">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s" s="0">
-        <v>210</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="K27" s="0">
-        <v>195</v>
-      </c>
-      <c r="L27" t="s" s="0">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s" s="0">
-        <v>211</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="I29" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J29" s="0">
-        <v>10</v>
-      </c>
-      <c r="K29" s="0">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>178</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="I30" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J30" s="0">
-        <v>2</v>
-      </c>
-      <c r="K30" s="0">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" s="0">
-        <v>213</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="K32" s="0">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="D33" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="K33" s="0">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s" s="0">
-        <v>215</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="K35" s="0">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="K36" s="0">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="G38" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="H38" s="0">
-        <v>10</v>
-      </c>
-      <c r="I38" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J38" s="0">
-        <v>10</v>
-      </c>
-      <c r="K38" s="0">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s" s="0">
-        <v>218</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="G39" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="H39" s="0">
-        <v>5</v>
-      </c>
-      <c r="I39" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J39" s="0">
-        <v>2</v>
-      </c>
-      <c r="K39" s="0">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s" s="0">
-        <v>219</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="K41" s="0">
-        <v>194</v>
-      </c>
-      <c r="L41" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="M41" s="0">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F42" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="K42" s="0">
-        <v>195</v>
-      </c>
-      <c r="L42" t="s" s="0">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s" s="0">
-        <v>221</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="F44" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="I44" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J44" s="0">
-        <v>10</v>
-      </c>
-      <c r="K44" s="0">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s" s="0">
-        <v>222</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>178</v>
-      </c>
-      <c r="D45" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="E45" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="F45" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="I45" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="J45" s="0">
-        <v>2</v>
-      </c>
-      <c r="K45" s="0">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s" s="0">
-        <v>223</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D47" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="E47" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="F47" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="K47" s="0">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s" s="0">
-        <v>224</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="F48" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="K48" s="0">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E50" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="F50" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="K50" s="0">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s" s="0">
-        <v>226</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D51" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="E51" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="F51" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="K51" s="0">
-        <v>172</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="N1:N125" xr:uid="{72CA91A3-71A2-40E1-9E38-A4CCFCF2C64C}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3032,13 +4937,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.88671875"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3052,31 +4957,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>123</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>123</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>123</v>
       </c>
     </row>

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\MyProjects\TASystemsAPIs\src\test\resources\testDataFiles\SteeringCompanyAPI_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85418A-E748-4667-9A67-6DD56C37C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593A9A8B-5EAE-46AE-A96B-1677434D6B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="API_Data" sheetId="1" r:id="rId1"/>
@@ -4078,7 +4078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4088,9 +4088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A12BEA-8F73-4430-93DA-A8D97F072989}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7193,7 +7193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA91A3-71A2-40E1-9E38-A4CCFCF2C64C}">
   <dimension ref="A1:Q302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\MyProjects\TASystemsAPIs\src\test\resources\testDataFiles\SteeringCompanyAPI_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB094C-E3CE-4D52-B768-C26B9EFCFDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E36C446-41DC-4C33-A9D5-ECE04CB29CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="878">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>
@@ -2574,6 +2574,114 @@
   </si>
   <si>
     <t>UsageName</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_Valid_1</t>
+  </si>
+  <si>
+    <t>"addPeriodProgram":10</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_Valid_2</t>
+  </si>
+  <si>
+    <t>"addPeriodProgram":0</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_Valid_3</t>
+  </si>
+  <si>
+    <t>"addPeriodProgram":97</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_InValid_1</t>
+  </si>
+  <si>
+    <t>{"title":"VALIDATION_ERROR","status":422,"detail":"Ota PeriodProgram not valid","errors":[{"field":"Ota PeriodProgram.Add PeriodProgram","title":null,"code":null,"detail":"Must be a positive number"}]}</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_InValid_2</t>
+  </si>
+  <si>
+    <t>{"title":"VALIDATION_ERROR","status":422,"detail":"Ota PeriodProgram not valid","errors":[{"field":"Ota PeriodProgram.Ota Details.Ota Code","title":null,"code":null,"detail":"Sum add PeriodProgram and Base PeriodProgram can't be &gt; 100."}]}</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_InValid_3</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_NotFound_1</t>
+  </si>
+  <si>
+    <t>{"title":"OTA_NOT_FOUND","status":404,"detail":"Couldn't find ota PeriodProgram with code test","errors":[]}</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_NotAccepted_1</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_Missing_1</t>
+  </si>
+  <si>
+    <t>{"title":"VALIDATION_ERROR","status":422,"detail":"Ota PeriodProgram not valid","errors":[{"field":"Ota PeriodProgram.Ota Details.Ota Code","title":null,"code":null,"detail":"Must not be empty"}]}</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_Missing_2</t>
+  </si>
+  <si>
+    <t>{"title":"VALIDATION_ERROR","status":422,"detail":"Ota PeriodProgram not valid","errors":[{"field":"Ota PeriodProgram.Add PeriodProgram","title":null,"code":null,"detail":"Must not be empty"}]}</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_Missing_3</t>
+  </si>
+  <si>
+    <t>{"title":"VALIDATION_ERROR","status":422,"detail":"Ota PeriodProgram not valid","errors":[{"field":"Ota PeriodProgram.Add PeriodProgram","title":null,"code":null,"detail":"Must not be empty"},{"field":"Ota PeriodProgram.Ota Details.Ota Code","title":null,"code":null,"detail":"Must not be empty"}]}</t>
+  </si>
+  <si>
+    <t>Get_PeriodProgram_Valid_1</t>
+  </si>
+  <si>
+    <t>Get_PeriodProgram_Valid_2</t>
+  </si>
+  <si>
+    <t>Get_PeriodProgram_NotFound_1</t>
+  </si>
+  <si>
+    <t>Get_PeriodProgram_NotFound_2</t>
+  </si>
+  <si>
+    <t>{"title":"OTA_NOT_FOUND","status":404,"detail":"Couldn't find ota PeriodProgram with code  ","errors":[]}</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_1</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_2</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_3</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_4</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_5</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_6</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_7</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_8</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_9</t>
+  </si>
+  <si>
+    <t>Get_AllPeriodProgram_Valid_Pagenation_10</t>
+  </si>
+  <si>
+    <t>Get_InValid_AllPeriodProgram_Pagenation_1</t>
   </si>
 </sst>
 </file>
@@ -3893,7 +4001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4005,84 +4113,84 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>736</v>
+        <v>842</v>
       </c>
       <c r="B2" t="s">
         <v>821</v>
       </c>
       <c r="Y2" s="27" t="s">
-        <v>781</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>738</v>
+        <v>844</v>
       </c>
       <c r="B3" t="s">
         <v>821</v>
       </c>
       <c r="Y3" s="27" t="s">
-        <v>780</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>846</v>
       </c>
       <c r="B4" t="s">
         <v>821</v>
       </c>
       <c r="Y4" s="27" t="s">
-        <v>779</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>740</v>
+        <v>848</v>
       </c>
       <c r="B6" t="s">
         <v>821</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>785</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>741</v>
+        <v>850</v>
       </c>
       <c r="B7" t="s">
         <v>821</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>742</v>
+        <v>852</v>
       </c>
       <c r="B8" t="s">
         <v>821</v>
       </c>
       <c r="Y8" s="27" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="B10" t="s">
         <v>821</v>
       </c>
       <c r="Y10" s="27" t="s">
-        <v>787</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>743</v>
+        <v>855</v>
       </c>
       <c r="B12" t="s">
         <v>821</v>
@@ -4093,40 +4201,40 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>744</v>
+        <v>856</v>
       </c>
       <c r="B14" t="s">
         <v>821</v>
       </c>
       <c r="Y14" s="32" t="s">
-        <v>782</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>745</v>
+        <v>858</v>
       </c>
       <c r="B15" t="s">
         <v>821</v>
       </c>
       <c r="Y15" s="32" t="s">
-        <v>783</v>
+        <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>746</v>
+        <v>860</v>
       </c>
       <c r="B16" t="s">
         <v>821</v>
       </c>
       <c r="Y16" s="27" t="s">
-        <v>784</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>747</v>
+        <v>862</v>
       </c>
       <c r="B18" t="s">
         <v>821</v>
@@ -4137,7 +4245,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>748</v>
+        <v>863</v>
       </c>
       <c r="B19" t="s">
         <v>821</v>
@@ -4148,29 +4256,29 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>749</v>
+        <v>864</v>
       </c>
       <c r="B21" t="s">
         <v>821</v>
       </c>
       <c r="Y21" s="27" t="s">
-        <v>787</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>788</v>
+        <v>865</v>
       </c>
       <c r="B22" t="s">
         <v>821</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>789</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>768</v>
+        <v>867</v>
       </c>
       <c r="B24" t="s">
         <v>821</v>
@@ -4184,7 +4292,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>769</v>
+        <v>868</v>
       </c>
       <c r="B25" t="s">
         <v>821</v>
@@ -4198,7 +4306,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>770</v>
+        <v>869</v>
       </c>
       <c r="B26" t="s">
         <v>821</v>
@@ -4212,7 +4320,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>771</v>
+        <v>870</v>
       </c>
       <c r="B27" t="s">
         <v>821</v>
@@ -4226,7 +4334,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>772</v>
+        <v>871</v>
       </c>
       <c r="B28" t="s">
         <v>821</v>
@@ -4240,7 +4348,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>773</v>
+        <v>872</v>
       </c>
       <c r="B29" t="s">
         <v>821</v>
@@ -4254,7 +4362,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>774</v>
+        <v>873</v>
       </c>
       <c r="B30" t="s">
         <v>821</v>
@@ -4268,7 +4376,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>775</v>
+        <v>874</v>
       </c>
       <c r="B31" t="s">
         <v>821</v>
@@ -4279,7 +4387,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>776</v>
+        <v>875</v>
       </c>
       <c r="B32" t="s">
         <v>821</v>
@@ -4290,7 +4398,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
       <c r="B33" t="s">
         <v>821</v>
@@ -4298,7 +4406,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>798</v>
+        <v>877</v>
       </c>
       <c r="B36" t="s">
         <v>821</v>

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\MyProjects\TASystemsAPIs\src\test\resources\testDataFiles\SteeringCompanyAPI_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E7514-8A0B-4141-8524-45EFE9FBA428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECE2A12-0372-4E3F-BE49-0D01B0A7DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{5917D1C2-D937-40E8-B9B8-BFF7C090FCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="API_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="TokenAPI_TestData" sheetId="2" r:id="rId2"/>
-    <sheet name="PeriodProgram_TestData" sheetId="9" r:id="rId3"/>
-    <sheet name="Commission_TestData" sheetId="8" r:id="rId4"/>
-    <sheet name="Reservation_TestData" sheetId="7" r:id="rId5"/>
-    <sheet name="Policy_TestData" sheetId="3" r:id="rId6"/>
-    <sheet name="PeriodProgramTemplate_TestData" sheetId="6" r:id="rId7"/>
-    <sheet name="CreationalPeriod_TestData" sheetId="5" r:id="rId8"/>
+    <sheet name="Lookups_TestData" sheetId="10" r:id="rId2"/>
+    <sheet name="TokenAPI_TestData" sheetId="2" r:id="rId3"/>
+    <sheet name="PeriodProgram_TestData" sheetId="9" r:id="rId4"/>
+    <sheet name="Commission_TestData" sheetId="8" r:id="rId5"/>
+    <sheet name="Reservation_TestData" sheetId="7" r:id="rId6"/>
+    <sheet name="Policy_TestData" sheetId="3" r:id="rId7"/>
+    <sheet name="PeriodProgramTemplate_TestData" sheetId="6" r:id="rId8"/>
+    <sheet name="CreationalPeriod_TestData" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Commission_TestData!$B$1:$B$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PeriodProgram_TestData!$B$1:$B$120</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Policy_TestData!$B$1:$B$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Commission_TestData!$B$1:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PeriodProgram_TestData!$B$1:$B$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Policy_TestData!$B$1:$B$302</definedName>
     <definedName name="ValueofE2">PeriodProgram_TestData!$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1109">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>
@@ -2948,9 +2949,6 @@
     <t>Update_NotFound_PeriodProgram_4</t>
   </si>
   <si>
-    <t>https://auth-dev.np.transporticonline.com</t>
-  </si>
-  <si>
     <t>api-test</t>
   </si>
   <si>
@@ -2972,9 +2970,6 @@
     <t>1200</t>
   </si>
   <si>
-    <t>"creationPeriodId":67</t>
-  </si>
-  <si>
     <t>{"title":"GDS_INVENTORY_SPECIFICATION_MAP_NOT_FOUND","status":404,"detail":"Couldn't find gds inventory specification map with id</t>
   </si>
   <si>
@@ -3041,33 +3036,6 @@
     <t>"nameArabic":"سياسية استخدام عادية 23019"</t>
   </si>
   <si>
-    <t>https://api-dev.np.transporticonline.com/steeringcompanies/v1</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Get_PeriodProgram_-Valid_2</t>
-  </si>
-  <si>
     <t>Get_NotFound_PeriodProgram_1</t>
   </si>
   <si>
@@ -3081,6 +3049,342 @@
   </si>
   <si>
     <t>Get_Valid_PeriodProgram_1</t>
+  </si>
+  <si>
+    <t>Get_All_Valid_1</t>
+  </si>
+  <si>
+    <t>Get_All_Valid_2</t>
+  </si>
+  <si>
+    <t>Get_All_Valid_3</t>
+  </si>
+  <si>
+    <t>Get_All_Valid_4</t>
+  </si>
+  <si>
+    <t>Get_All_Valid_5</t>
+  </si>
+  <si>
+    <t>Get_All_Valid_6</t>
+  </si>
+  <si>
+    <t>Get_All_Valid_7</t>
+  </si>
+  <si>
+    <t>Get_All_Valid_8</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_1</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_2</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_3</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_4</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_5</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_6</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_7</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_8</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_9</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_10</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_11</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_12</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_13</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_14</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_15</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_16</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_17</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_18</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_19</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_20</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_21</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_22</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_23</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_24</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_25</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_26</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_27</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_28</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_29</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_30</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_31</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_32</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_33</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_34</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_35</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_36</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_37</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_38</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_39</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_40</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_41</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_42</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_43</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_44</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_45</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_46</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_47</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_48</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_49</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_50</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_51</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_52</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_53</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_54</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_55</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_56</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_57</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_58</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_59</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_60</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_61</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_62</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_63</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_64</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_65</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_66</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_67</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_68</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_69</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_70</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_71</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_72</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_73</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_74</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_75</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_76</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_77</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_78</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_79</t>
+  </si>
+  <si>
+    <t>Get_Valid_Pagenation_80</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>"creationPeriodId":234</t>
+  </si>
+  <si>
+    <t>Get_Valid_PeriodProgram_2</t>
+  </si>
+  <si>
+    <t>{"title":"TAX_POLICY_NOT_FOUND","status":404,"detail":"Couldn't find tax policy with id</t>
+  </si>
+  <si>
+    <t>{"title":"PAYMENT_POLICY_NOT_FOUND","status":404,"detail":"Couldn't find payment policy with id</t>
+  </si>
+  <si>
+    <t>{"title":"CANCELLATION_POLICY_NOT_FOUND","status":404,"detail":"Couldn't find cancellation policy with id</t>
+  </si>
+  <si>
+    <t>{"title":"GENERAL_POLICY_NOT_FOUND","status":404,"detail":"Couldn't find general policy with id</t>
+  </si>
+  <si>
+    <t>{"title":"USAGE_POLICY_NOT_FOUND","status":404,"detail":"Couldn't find usage policy with id</t>
+  </si>
+  <si>
+    <t>Add_NotFound_PeriodProgram_5</t>
+  </si>
+  <si>
+    <t>Add_NotFound_PeriodProgram_6</t>
+  </si>
+  <si>
+    <t>Add_NotFound_PeriodProgram_7</t>
+  </si>
+  <si>
+    <t>Add_NotFound_PeriodProgram_8</t>
+  </si>
+  <si>
+    <t>Add_NotFound_PeriodProgram_9</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"title":"VALIDATION_ERROR","status":422,"detail":"Operational setting specification not valid","errors":[{"field":"Operational setting specification.Creation End date","title":null,"code":null,"detail":"Creational Period is ended because Creation End date is </t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_AfterEnd_Creational_1</t>
+  </si>
+  <si>
+    <t>Add_PeriodProgram_BeforeStart_Creational_1</t>
+  </si>
+  <si>
+    <t>Update_PeriodProgram_AfterEnd_Creational_1</t>
+  </si>
+  <si>
+    <t>Update_PeriodProgram_BeforeStart_Creational_1</t>
+  </si>
+  <si>
+    <t>{"title":"VALIDATION_ERROR","status":422,"detail":"Operational setting specification not valid","errors":[{"field":"Operational setting specification.Creation start date","title":null,"code":null,"detail":"</t>
   </si>
 </sst>
 </file>
@@ -3733,9 +4037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A12BEA-8F73-4430-93DA-A8D97F072989}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3784,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3812,10 +4116,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="15" thickBot="1">
@@ -4444,6 +4748,1166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7EC2D0-CAE4-4985-80BD-DF6C52198F17}">
+  <dimension ref="A1:E89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>997</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="35">
+        <v>100</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
+      <c r="D12" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="35">
+        <v>10</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="35">
+        <v>10</v>
+      </c>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="35">
+        <v>100</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="35">
+        <v>1</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="35">
+        <v>1</v>
+      </c>
+      <c r="D22" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D23" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="35">
+        <v>10</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="35">
+        <v>10</v>
+      </c>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="35">
+        <v>100</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="35">
+        <v>1</v>
+      </c>
+      <c r="D31" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="35">
+        <v>1</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D33" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="35">
+        <v>10</v>
+      </c>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="35">
+        <v>100</v>
+      </c>
+      <c r="D40" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="35">
+        <v>1</v>
+      </c>
+      <c r="D41" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="35">
+        <v>1</v>
+      </c>
+      <c r="D42" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D43" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D44" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="35">
+        <v>10</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="35">
+        <v>10</v>
+      </c>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="35">
+        <v>100</v>
+      </c>
+      <c r="D50" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="35">
+        <v>1</v>
+      </c>
+      <c r="D51" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="35">
+        <v>1</v>
+      </c>
+      <c r="D52" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D53" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="35">
+        <v>10</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="35">
+        <v>10</v>
+      </c>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="35">
+        <v>100</v>
+      </c>
+      <c r="D60" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="35">
+        <v>1</v>
+      </c>
+      <c r="D61" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="35">
+        <v>1</v>
+      </c>
+      <c r="D62" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D63" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D64" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="35">
+        <v>10</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="35">
+        <v>10</v>
+      </c>
+      <c r="D67" s="35"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="35">
+        <v>100</v>
+      </c>
+      <c r="D70" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="35">
+        <v>1</v>
+      </c>
+      <c r="D71" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="35">
+        <v>1</v>
+      </c>
+      <c r="D72" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D73" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D74" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="35">
+        <v>10</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="35">
+        <v>10</v>
+      </c>
+      <c r="D77" s="35"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="35">
+        <v>100</v>
+      </c>
+      <c r="D80" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="35">
+        <v>1</v>
+      </c>
+      <c r="D81" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="35">
+        <v>1</v>
+      </c>
+      <c r="D82" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D83" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="35">
+        <v>10</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="35">
+        <v>10</v>
+      </c>
+      <c r="D87" s="35"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B428D2E5-5BCB-4B9B-AFAF-56D8BA9991FD}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -4476,7 +5940,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -4489,8 +5953,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>965</v>
+      <c r="B3">
+        <v>123</v>
       </c>
       <c r="C3">
         <v>123</v>
@@ -4501,17 +5965,17 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4524,18 +5988,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B84FFC-D78F-4E9E-93C2-2FD3C51EC60C}">
-  <dimension ref="A1:Z121"/>
+  <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U101" sqref="U101"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y130" sqref="Y130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -4641,7 +6105,7 @@
         <v>130</v>
       </c>
       <c r="Z1" s="33" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4652,28 +6116,28 @@
         <v>793</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>995</v>
+        <v>1085</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>996</v>
+        <v>1086</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>998</v>
+        <v>1088</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>967</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>968</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>969</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>970</v>
       </c>
       <c r="K2" s="36" t="s">
         <v>847</v>
@@ -4689,12 +6153,12 @@
       <c r="T2" s="35"/>
       <c r="U2" s="35"/>
       <c r="V2" s="35" t="s">
-        <v>999</v>
+        <v>1101</v>
       </c>
       <c r="W2" s="35"/>
       <c r="X2" s="35"/>
       <c r="Y2" s="37" t="s">
-        <v>971</v>
+        <v>1089</v>
       </c>
       <c r="Z2" s="35" t="s">
         <v>793</v>
@@ -4705,31 +6169,31 @@
         <v>834</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>995</v>
+        <v>1085</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>996</v>
+        <v>1086</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>998</v>
+        <v>1088</v>
       </c>
       <c r="G3" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>967</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="I3" s="35" t="s">
         <v>968</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>969</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>970</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>847</v>
@@ -4765,12 +6229,12 @@
         <v>121</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>1000</v>
+        <v>1102</v>
       </c>
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
       <c r="Y3" s="37" t="s">
-        <v>971</v>
+        <v>1089</v>
       </c>
       <c r="Z3" s="35" t="s">
         <v>840</v>
@@ -4785,19 +6249,19 @@
       </c>
       <c r="C4" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D4" s="35">
         <f t="shared" ref="D4:J4" si="0">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E4" s="35">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F4" s="35">
         <f t="shared" si="0"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G4" s="35">
         <f t="shared" si="0"/>
@@ -4830,11 +6294,13 @@
       <c r="U4" s="35"/>
       <c r="V4" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="35"/>
-      <c r="Y4" s="37"/>
+      <c r="Y4" s="37" t="s">
+        <v>1089</v>
+      </c>
       <c r="Z4" s="35" t="s">
         <v>793</v>
       </c>
@@ -4844,23 +6310,23 @@
         <v>842</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C5" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D5" s="35">
         <f t="shared" ref="D5:J5" si="1">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E5" s="35">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F5" s="35">
         <f t="shared" si="1"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -4879,7 +6345,7 @@
         <v>1200</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>1001</v>
+        <v>847</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>835</v>
@@ -4913,11 +6379,13 @@
       </c>
       <c r="V5" s="35">
         <f>VALUE(V3)</f>
-        <v>746</v>
+        <v>1445</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="35"/>
-      <c r="Y5" s="37"/>
+      <c r="Y5" s="37" t="s">
+        <v>1089</v>
+      </c>
       <c r="Z5" s="35" t="s">
         <v>840</v>
       </c>
@@ -4931,19 +6399,19 @@
       </c>
       <c r="C6" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D6" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E6" s="35">
         <f>VALUE(E2+1)</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F6" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G6" s="35">
         <f>VALUE(G2)</f>
@@ -4989,15 +6457,15 @@
         <v>844</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C7" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D7" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E7" s="35">
         <f>VALUE(E2-E2)</f>
@@ -5005,7 +6473,7 @@
       </c>
       <c r="F7" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G7" s="35">
         <f>VALUE(G2)</f>
@@ -5075,11 +6543,11 @@
       </c>
       <c r="C8" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D8" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E8" s="35">
         <f>VALUE(E2-E2-1)</f>
@@ -5087,7 +6555,7 @@
       </c>
       <c r="F8" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G8" s="35">
         <f>VALUE(G2)</f>
@@ -5133,23 +6601,23 @@
         <v>846</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C9" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D9" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E9" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F9" s="35">
         <f>VALUE(F2-50)</f>
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="G9" s="35">
         <f>VALUE(G2)</f>
@@ -5219,19 +6687,19 @@
       </c>
       <c r="C10" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D10" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E10" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F10" s="35">
         <f>VALUE(F2+50)</f>
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="G10" s="35">
         <f>VALUE(G2)</f>
@@ -5277,19 +6745,19 @@
         <v>849</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C11" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D11" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E11" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F11" s="35">
         <f>VALUE(F2-F2)</f>
@@ -5363,15 +6831,15 @@
       </c>
       <c r="C12" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D12" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E12" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F12" s="35">
         <f>VALUE(F2-F2-1)</f>
@@ -5421,23 +6889,23 @@
         <v>851</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C13" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D13" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E13" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F13" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G13" s="35">
         <f>VALUE(G2-50)</f>
@@ -5507,19 +6975,19 @@
       </c>
       <c r="C14" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D14" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E14" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F14" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G14" s="35">
         <f>VALUE(G2+50)</f>
@@ -5565,23 +7033,23 @@
         <v>853</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C15" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D15" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E15" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F15" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G15" s="35">
         <f>VALUE(G2-G2)</f>
@@ -5651,19 +7119,19 @@
       </c>
       <c r="C16" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D16" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E16" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F16" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G16" s="35">
         <f>VALUE(G2-G2-1)</f>
@@ -5709,23 +7177,23 @@
         <v>855</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C17" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D17" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E17" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F17" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G17" s="35">
         <f>VALUE(G2)</f>
@@ -5795,19 +7263,19 @@
       </c>
       <c r="C18" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D18" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E18" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F18" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G18" s="35">
         <f>VALUE(G2)</f>
@@ -5853,23 +7321,23 @@
         <v>857</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C19" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D19" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E19" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F19" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G19" s="35">
         <f>VALUE(G2)</f>
@@ -5939,19 +7407,19 @@
       </c>
       <c r="C20" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D20" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E20" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F20" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G20" s="35">
         <f>VALUE(G2)</f>
@@ -5997,23 +7465,23 @@
         <v>859</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C21" s="35">
         <f t="shared" ref="C21:H21" si="2">VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D21" s="35">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E21" s="35">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="2"/>
@@ -6083,19 +7551,19 @@
       </c>
       <c r="C22" s="35">
         <f t="shared" ref="C22:H22" si="3">VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D22" s="35">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E22" s="35">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="3"/>
@@ -6141,23 +7609,23 @@
         <v>861</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C23" s="35">
         <f t="shared" ref="C23:H23" si="4">VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D23" s="35">
         <f t="shared" si="4"/>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E23" s="35">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="4"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6227,19 +7695,19 @@
       </c>
       <c r="C24" s="35">
         <f t="shared" ref="C24:H24" si="5">VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D24" s="35">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E24" s="35">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="5"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="5"/>
@@ -6285,23 +7753,23 @@
         <v>863</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C25" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D25" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E25" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F25" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G25" s="35">
         <f>VALUE(G2)</f>
@@ -6371,19 +7839,19 @@
       </c>
       <c r="C26" s="35">
         <f t="shared" ref="C26:I26" si="6">VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D26" s="35">
         <f t="shared" si="6"/>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E26" s="35">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="6"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" si="6"/>
@@ -6429,23 +7897,23 @@
         <v>865</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C27" s="35">
         <f t="shared" ref="C27:I27" si="7">VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D27" s="35">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E27" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="7"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="7"/>
@@ -6515,19 +7983,19 @@
       </c>
       <c r="C28" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D28" s="35">
         <f t="shared" ref="D28:I28" si="8">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E28" s="35">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="8"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="8"/>
@@ -6573,19 +8041,19 @@
         <v>926</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C29" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D29" s="35">
         <f t="shared" ref="D29:J29" si="9">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E29" s="35">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>930</v>
@@ -6658,15 +8126,15 @@
       </c>
       <c r="C30" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D30" s="35">
         <f t="shared" ref="D30:J30" si="10">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E30" s="35">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>930</v>
@@ -6714,23 +8182,23 @@
         <v>928</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C31" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D31" s="35">
         <f t="shared" ref="D31:J31" si="11">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E31" s="35">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="11"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="11"/>
@@ -6799,19 +8267,19 @@
       </c>
       <c r="C32" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D32" s="35">
         <f t="shared" ref="D32:J32" si="12">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E32" s="35">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="12"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="12"/>
@@ -6862,15 +8330,15 @@
       </c>
       <c r="D33" s="35">
         <f t="shared" ref="D33:J33" si="13">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E33" s="35">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="13"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="13"/>
@@ -6916,7 +8384,7 @@
         <v>903</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C34" s="35">
         <f>VALUE(C2)+6.66666666666666E+29</f>
@@ -6924,15 +8392,15 @@
       </c>
       <c r="D34" s="35">
         <f t="shared" ref="D34:J34" si="14">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E34" s="35">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="14"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G34" s="35">
         <f t="shared" si="14"/>
@@ -7002,18 +8470,18 @@
       </c>
       <c r="C35" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>923</v>
       </c>
       <c r="E35" s="35">
         <f t="shared" ref="E35:J35" si="15">VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="15"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G35" s="35">
         <f t="shared" si="15"/>
@@ -7059,11 +8527,11 @@
         <v>905</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C36" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D36" s="35">
         <f>VALUE(D2)+2.22222222222222E+32</f>
@@ -7071,11 +8539,11 @@
       </c>
       <c r="E36" s="35">
         <f t="shared" ref="E36:J36" si="16">VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="16"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G36" s="35">
         <f t="shared" si="16"/>
@@ -7145,18 +8613,18 @@
       </c>
       <c r="C37" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D37" s="35">
         <f t="shared" ref="D37:J37" si="17">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>923</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="17"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="17"/>
@@ -7202,23 +8670,23 @@
         <v>907</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C38" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D38" s="35">
         <f t="shared" ref="D38:J38" si="18">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E38" s="35">
         <f>VALUE(E2)+123456789123456000</f>
-        <v>1.234567891234561E+17</v>
+        <v>1.2345678912345602E+17</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="18"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G38" s="35">
         <f t="shared" si="18"/>
@@ -7288,15 +8756,15 @@
       </c>
       <c r="C39" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D39" s="35">
         <f t="shared" ref="D39:J39" si="19">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E39" s="35">
         <f t="shared" si="19"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>923</v>
@@ -7345,19 +8813,19 @@
         <v>909</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C40" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D40" s="35">
         <f t="shared" ref="D40:J40" si="20">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E40" s="35">
         <f t="shared" si="20"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F40" s="35">
         <f>VALUE(F2)+123456789123456000</f>
@@ -7431,19 +8899,19 @@
       </c>
       <c r="C41" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D41" s="35">
         <f t="shared" ref="D41:J41" si="21">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E41" s="35">
         <f t="shared" si="21"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="21"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>923</v>
@@ -7488,23 +8956,23 @@
         <v>911</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C42" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D42" s="35">
         <f t="shared" ref="D42:J42" si="22">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E42" s="35">
         <f t="shared" si="22"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F42" s="35">
         <f t="shared" si="22"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G42" s="35">
         <f>VALUE(G2)+123456789123456000</f>
@@ -7574,19 +9042,19 @@
       </c>
       <c r="C43" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D43" s="35">
         <f t="shared" ref="D43:J43" si="23">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E43" s="35">
         <f t="shared" si="23"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="23"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G43" s="35">
         <f t="shared" si="23"/>
@@ -7631,23 +9099,23 @@
         <v>913</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C44" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D44" s="35">
         <f t="shared" ref="D44:J44" si="24">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E44" s="35">
         <f t="shared" si="24"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="24"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G44" s="35">
         <f t="shared" si="24"/>
@@ -7717,19 +9185,19 @@
       </c>
       <c r="C45" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D45" s="35">
         <f t="shared" ref="D45:J45" si="25">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E45" s="35">
         <f t="shared" si="25"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F45" s="35">
         <f t="shared" si="25"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G45" s="35">
         <f t="shared" si="25"/>
@@ -7774,23 +9242,23 @@
         <v>915</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C46" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D46" s="35">
         <f t="shared" ref="D46:J46" si="26">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E46" s="35">
         <f t="shared" si="26"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="26"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G46" s="35">
         <f t="shared" si="26"/>
@@ -7860,19 +9328,19 @@
       </c>
       <c r="C47" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D47" s="35">
         <f t="shared" ref="D47:I47" si="27">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E47" s="35">
         <f t="shared" si="27"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F47" s="35">
         <f t="shared" si="27"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G47" s="35">
         <f t="shared" si="27"/>
@@ -7921,19 +9389,19 @@
       </c>
       <c r="C48" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D48" s="35">
         <f t="shared" ref="D48:J48" si="28">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E48" s="35">
         <f t="shared" si="28"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F48" s="35">
         <f t="shared" si="28"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G48" s="35">
         <f t="shared" si="28"/>
@@ -7979,23 +9447,23 @@
         <v>918</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C49" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D49" s="35">
         <f t="shared" ref="D49:J49" si="29">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E49" s="35">
         <f t="shared" si="29"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F49" s="35">
         <f t="shared" si="29"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G49" s="35">
         <f t="shared" si="29"/>
@@ -8061,23 +9529,23 @@
         <v>919</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C50" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D50" s="35">
         <f t="shared" ref="D50:J50" si="30">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E50" s="35">
         <f t="shared" si="30"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="30"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G50" s="35">
         <f t="shared" si="30"/>
@@ -8143,23 +9611,23 @@
         <v>920</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C51" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D51" s="35">
         <f t="shared" ref="D51:J51" si="31">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E51" s="35">
         <f t="shared" si="31"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="31"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G51" s="35">
         <f t="shared" si="31"/>
@@ -8225,23 +9693,23 @@
         <v>921</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C52" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D52" s="35">
         <f t="shared" ref="D52:J52" si="32">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E52" s="35">
         <f t="shared" si="32"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F52" s="35">
         <f t="shared" si="32"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G52" s="35">
         <f t="shared" si="32"/>
@@ -8307,23 +9775,23 @@
         <v>922</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C53" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D53" s="35">
         <f t="shared" ref="D53:J53" si="33">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E53" s="35">
         <f t="shared" si="33"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F53" s="35">
         <f t="shared" si="33"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G53" s="35">
         <f t="shared" si="33"/>
@@ -8397,15 +9865,15 @@
       </c>
       <c r="D54" s="35">
         <f t="shared" ref="D54:J54" si="34">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E54" s="35">
         <f t="shared" si="34"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="34"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G54" s="35">
         <f t="shared" si="34"/>
@@ -8455,19 +9923,19 @@
       </c>
       <c r="C55" s="35">
         <f>VALUE(C2+C2+10)</f>
-        <v>144</v>
+        <v>478</v>
       </c>
       <c r="D55" s="35">
         <f t="shared" ref="D55:J55" si="35">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E55" s="35">
         <f t="shared" si="35"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="35"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G55" s="35">
         <f t="shared" si="35"/>
@@ -8517,7 +9985,7 @@
       </c>
       <c r="C56" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D56" s="35">
         <f>VALUE(D2-D2-1)</f>
@@ -8525,11 +9993,11 @@
       </c>
       <c r="E56" s="35">
         <f t="shared" ref="E56:J56" si="36">VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="36"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G56" s="35">
         <f t="shared" si="36"/>
@@ -8579,19 +10047,19 @@
       </c>
       <c r="C57" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D57" s="35">
         <f>VALUE(D2+D2+10)</f>
-        <v>412</v>
+        <v>680</v>
       </c>
       <c r="E57" s="35">
         <f t="shared" ref="E57:J57" si="37">VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="37"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G57" s="35">
         <f t="shared" si="37"/>
@@ -8634,64 +10102,84 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="35" t="s">
-        <v>879</v>
+        <v>1096</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C58" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C58:J58" si="38">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D58" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="38"/>
+        <v>335</v>
       </c>
       <c r="E58" s="35">
-        <f>VALUE(E2+1)</f>
-        <v>101</v>
+        <f t="shared" si="38"/>
+        <v>10</v>
       </c>
       <c r="F58" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f t="shared" si="38"/>
+        <v>2010</v>
       </c>
       <c r="G58" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="38"/>
         <v>2022</v>
       </c>
       <c r="H58" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="I58" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="J58" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="38"/>
         <v>1200</v>
       </c>
       <c r="K58" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
+      <c r="L58" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M58" s="35">
+        <v>1221</v>
+      </c>
+      <c r="N58" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O58" s="35">
+        <v>129</v>
+      </c>
+      <c r="P58" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q58" s="35">
+        <v>296</v>
+      </c>
+      <c r="R58" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S58" s="35">
+        <v>120</v>
+      </c>
+      <c r="T58" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U58" s="35">
+        <v>121</v>
+      </c>
       <c r="V58" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
       <c r="Y58" s="37" t="s">
-        <v>870</v>
+        <v>1091</v>
       </c>
       <c r="Z58" s="35" t="s">
         <v>793</v>
@@ -8699,41 +10187,41 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="35" t="s">
-        <v>880</v>
+        <v>1097</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C59" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C59:J59" si="39">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D59" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="39"/>
+        <v>335</v>
       </c>
       <c r="E59" s="35">
-        <f>VALUE(E2-E2)</f>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>10</v>
       </c>
       <c r="F59" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f t="shared" si="39"/>
+        <v>2010</v>
       </c>
       <c r="G59" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="39"/>
         <v>2022</v>
       </c>
       <c r="H59" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="I59" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="J59" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="39"/>
         <v>1200</v>
       </c>
       <c r="K59" s="36" t="s">
@@ -8749,7 +10237,7 @@
         <v>836</v>
       </c>
       <c r="O59" s="35">
-        <v>129</v>
+        <v>1291</v>
       </c>
       <c r="P59" s="35" t="s">
         <v>837</v>
@@ -8771,77 +10259,97 @@
       </c>
       <c r="V59" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W59" s="35"/>
       <c r="X59" s="35"/>
       <c r="Y59" s="37" t="s">
-        <v>867</v>
+        <v>1092</v>
       </c>
       <c r="Z59" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="35" t="s">
-        <v>881</v>
+        <v>1098</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C60" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C60:J60" si="40">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D60" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="40"/>
+        <v>335</v>
       </c>
       <c r="E60" s="35">
-        <f>VALUE(E2-E2-1)</f>
-        <v>-1</v>
+        <f t="shared" si="40"/>
+        <v>10</v>
       </c>
       <c r="F60" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f t="shared" si="40"/>
+        <v>2010</v>
       </c>
       <c r="G60" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="40"/>
         <v>2022</v>
       </c>
       <c r="H60" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
       <c r="I60" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="J60" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="40"/>
         <v>1200</v>
       </c>
       <c r="K60" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
+      <c r="L60" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M60" s="35">
+        <v>122</v>
+      </c>
+      <c r="N60" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O60" s="35">
+        <v>129</v>
+      </c>
+      <c r="P60" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q60" s="35">
+        <v>2961</v>
+      </c>
+      <c r="R60" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S60" s="35">
+        <v>120</v>
+      </c>
+      <c r="T60" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U60" s="35">
+        <v>121</v>
+      </c>
       <c r="V60" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W60" s="35"/>
       <c r="X60" s="35"/>
       <c r="Y60" s="37" t="s">
-        <v>867</v>
+        <v>1093</v>
       </c>
       <c r="Z60" s="35" t="s">
         <v>793</v>
@@ -8849,41 +10357,41 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="35" t="s">
-        <v>882</v>
+        <v>1099</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C61" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C61:J61" si="41">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D61" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="41"/>
+        <v>335</v>
       </c>
       <c r="E61" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f t="shared" si="41"/>
+        <v>10</v>
       </c>
       <c r="F61" s="35">
-        <f>VALUE(F2-50)</f>
-        <v>1959</v>
+        <f t="shared" si="41"/>
+        <v>2010</v>
       </c>
       <c r="G61" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="41"/>
         <v>2022</v>
       </c>
       <c r="H61" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
       <c r="I61" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="J61" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="41"/>
         <v>1200</v>
       </c>
       <c r="K61" s="36" t="s">
@@ -8911,7 +10419,7 @@
         <v>838</v>
       </c>
       <c r="S61" s="35">
-        <v>120</v>
+        <v>1201</v>
       </c>
       <c r="T61" s="35" t="s">
         <v>839</v>
@@ -8921,77 +10429,97 @@
       </c>
       <c r="V61" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
       <c r="Y61" s="37" t="s">
-        <v>868</v>
+        <v>1094</v>
       </c>
       <c r="Z61" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="35" t="s">
-        <v>883</v>
+        <v>1100</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C62" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C62:J62" si="42">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D62" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="42"/>
+        <v>335</v>
       </c>
       <c r="E62" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f t="shared" si="42"/>
+        <v>10</v>
       </c>
       <c r="F62" s="35">
-        <f>VALUE(F2+50)</f>
-        <v>2059</v>
+        <f t="shared" si="42"/>
+        <v>2010</v>
       </c>
       <c r="G62" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="42"/>
         <v>2022</v>
       </c>
       <c r="H62" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
       <c r="I62" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="J62" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="42"/>
         <v>1200</v>
       </c>
       <c r="K62" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
+      <c r="L62" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M62" s="35">
+        <v>122</v>
+      </c>
+      <c r="N62" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O62" s="35">
+        <v>129</v>
+      </c>
+      <c r="P62" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q62" s="35">
+        <v>296</v>
+      </c>
+      <c r="R62" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S62" s="35">
+        <v>120</v>
+      </c>
+      <c r="T62" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U62" s="35">
+        <v>1211</v>
+      </c>
       <c r="V62" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
       <c r="Y62" s="37" t="s">
-        <v>868</v>
+        <v>1095</v>
       </c>
       <c r="Z62" s="35" t="s">
         <v>793</v>
@@ -8999,26 +10527,26 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="35" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C63" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D63" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E63" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f>VALUE(E2+1)</f>
+        <v>11</v>
       </c>
       <c r="F63" s="35">
-        <f>VALUE(F2-F2)</f>
-        <v>0</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G63" s="35">
         <f>VALUE(G2)</f>
@@ -9039,71 +10567,51 @@
       <c r="K63" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L63" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M63" s="35">
-        <v>122</v>
-      </c>
-      <c r="N63" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O63" s="35">
-        <v>129</v>
-      </c>
-      <c r="P63" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q63" s="35">
-        <v>296</v>
-      </c>
-      <c r="R63" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S63" s="35">
-        <v>120</v>
-      </c>
-      <c r="T63" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U63" s="35">
-        <v>121</v>
-      </c>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
       <c r="V63" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
       <c r="Y63" s="37" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="Z63" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="35" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C64" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D64" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E64" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f>VALUE(E2-E2)</f>
+        <v>0</v>
       </c>
       <c r="F64" s="35">
-        <f>VALUE(F2-F2-1)</f>
-        <v>-1</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G64" s="35">
         <f>VALUE(G2)</f>
@@ -9124,55 +10632,75 @@
       <c r="K64" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
+      <c r="L64" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M64" s="35">
+        <v>122</v>
+      </c>
+      <c r="N64" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O64" s="35">
+        <v>129</v>
+      </c>
+      <c r="P64" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q64" s="35">
+        <v>296</v>
+      </c>
+      <c r="R64" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S64" s="35">
+        <v>120</v>
+      </c>
+      <c r="T64" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U64" s="35">
+        <v>121</v>
+      </c>
       <c r="V64" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
       <c r="Y64" s="37" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="Z64" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="35" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B65" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C65" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D65" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E65" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f>VALUE(E2-E2-1)</f>
+        <v>-1</v>
       </c>
       <c r="F65" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G65" s="35">
-        <f>VALUE(G2-50)</f>
-        <v>1972</v>
+        <f>VALUE(G2)</f>
+        <v>2022</v>
       </c>
       <c r="H65" s="35">
         <f>VALUE(H2)</f>
@@ -9189,75 +10717,55 @@
       <c r="K65" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L65" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M65" s="35">
-        <v>122</v>
-      </c>
-      <c r="N65" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O65" s="35">
-        <v>129</v>
-      </c>
-      <c r="P65" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q65" s="35">
-        <v>296</v>
-      </c>
-      <c r="R65" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S65" s="35">
-        <v>120</v>
-      </c>
-      <c r="T65" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U65" s="35">
-        <v>121</v>
-      </c>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
       <c r="V65" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W65" s="35"/>
       <c r="X65" s="35"/>
       <c r="Y65" s="37" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Z65" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="35" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C66" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D66" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E66" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F66" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f>VALUE(F2-50)</f>
+        <v>1960</v>
       </c>
       <c r="G66" s="35">
-        <f>VALUE(G2+50)</f>
-        <v>2072</v>
+        <f>VALUE(G2)</f>
+        <v>2022</v>
       </c>
       <c r="H66" s="35">
         <f>VALUE(H2)</f>
@@ -9274,55 +10782,75 @@
       <c r="K66" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
+      <c r="L66" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M66" s="35">
+        <v>122</v>
+      </c>
+      <c r="N66" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O66" s="35">
+        <v>129</v>
+      </c>
+      <c r="P66" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q66" s="35">
+        <v>296</v>
+      </c>
+      <c r="R66" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S66" s="35">
+        <v>120</v>
+      </c>
+      <c r="T66" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U66" s="35">
+        <v>121</v>
+      </c>
       <c r="V66" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
       <c r="Y66" s="37" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="Z66" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="35" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C67" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D67" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E67" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F67" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f>VALUE(F2+50)</f>
+        <v>2060</v>
       </c>
       <c r="G67" s="35">
-        <f>VALUE(G2-G2)</f>
-        <v>0</v>
+        <f>VALUE(G2)</f>
+        <v>2022</v>
       </c>
       <c r="H67" s="35">
         <f>VALUE(H2)</f>
@@ -9339,75 +10867,55 @@
       <c r="K67" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L67" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M67" s="35">
-        <v>122</v>
-      </c>
-      <c r="N67" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O67" s="35">
-        <v>129</v>
-      </c>
-      <c r="P67" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q67" s="35">
-        <v>296</v>
-      </c>
-      <c r="R67" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S67" s="35">
-        <v>120</v>
-      </c>
-      <c r="T67" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U67" s="35">
-        <v>121</v>
-      </c>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
       <c r="V67" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
       <c r="Y67" s="37" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="Z67" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="35" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C68" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D68" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E68" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F68" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f>VALUE(F2-F2)</f>
+        <v>0</v>
       </c>
       <c r="G68" s="35">
-        <f>VALUE(G2-G2-1)</f>
-        <v>-1</v>
+        <f>VALUE(G2)</f>
+        <v>2022</v>
       </c>
       <c r="H68" s="35">
         <f>VALUE(H2)</f>
@@ -9424,59 +10932,79 @@
       <c r="K68" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
+      <c r="L68" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M68" s="35">
+        <v>122</v>
+      </c>
+      <c r="N68" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O68" s="35">
+        <v>129</v>
+      </c>
+      <c r="P68" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q68" s="35">
+        <v>296</v>
+      </c>
+      <c r="R68" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S68" s="35">
+        <v>120</v>
+      </c>
+      <c r="T68" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U68" s="35">
+        <v>121</v>
+      </c>
       <c r="V68" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="37" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="Z68" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="35" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C69" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D69" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E69" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F69" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f>VALUE(F2-F2-1)</f>
+        <v>-1</v>
       </c>
       <c r="G69" s="35">
         <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H69" s="35">
-        <f>VALUE(H2-1)</f>
-        <v>8</v>
+        <f>VALUE(H2)</f>
+        <v>9</v>
       </c>
       <c r="I69" s="35">
         <f>VALUE(I2)</f>
@@ -9489,79 +11017,59 @@
       <c r="K69" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L69" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M69" s="35">
-        <v>122</v>
-      </c>
-      <c r="N69" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O69" s="35">
-        <v>129</v>
-      </c>
-      <c r="P69" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q69" s="35">
-        <v>296</v>
-      </c>
-      <c r="R69" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S69" s="35">
-        <v>120</v>
-      </c>
-      <c r="T69" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U69" s="35">
-        <v>121</v>
-      </c>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
       <c r="V69" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="37" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="Z69" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="35" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C70" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D70" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E70" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F70" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G70" s="35">
-        <f>VALUE(G2)</f>
-        <v>2022</v>
+        <f>VALUE(G2-50)</f>
+        <v>1972</v>
       </c>
       <c r="H70" s="35">
-        <f>VALUE(H2-H2)</f>
-        <v>0</v>
+        <f>VALUE(H2)</f>
+        <v>9</v>
       </c>
       <c r="I70" s="35">
         <f>VALUE(I2)</f>
@@ -9574,59 +11082,79 @@
       <c r="K70" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
+      <c r="L70" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M70" s="35">
+        <v>122</v>
+      </c>
+      <c r="N70" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O70" s="35">
+        <v>129</v>
+      </c>
+      <c r="P70" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q70" s="35">
+        <v>296</v>
+      </c>
+      <c r="R70" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S70" s="35">
+        <v>120</v>
+      </c>
+      <c r="T70" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U70" s="35">
+        <v>121</v>
+      </c>
       <c r="V70" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="37" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="Z70" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="35" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C71" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D71" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E71" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F71" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G71" s="35">
-        <f>VALUE(G2)</f>
-        <v>2022</v>
+        <f>VALUE(G2+50)</f>
+        <v>2072</v>
       </c>
       <c r="H71" s="35">
-        <f>VALUE(H2-H2-1)</f>
-        <v>-1</v>
+        <f>VALUE(H2)</f>
+        <v>9</v>
       </c>
       <c r="I71" s="35">
         <f>VALUE(I2)</f>
@@ -9639,79 +11167,59 @@
       <c r="K71" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L71" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M71" s="35">
-        <v>122</v>
-      </c>
-      <c r="N71" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O71" s="35">
-        <v>129</v>
-      </c>
-      <c r="P71" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q71" s="35">
-        <v>296</v>
-      </c>
-      <c r="R71" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S71" s="35">
-        <v>120</v>
-      </c>
-      <c r="T71" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U71" s="35">
-        <v>121</v>
-      </c>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
       <c r="V71" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="37" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="Z71" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="35" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C72" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D72" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E72" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F72" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G72" s="35">
-        <f>VALUE(G2)</f>
-        <v>2022</v>
+        <f>VALUE(G2-G2)</f>
+        <v>0</v>
       </c>
       <c r="H72" s="35">
-        <f>VALUE(H2+I2)</f>
-        <v>20</v>
+        <f>VALUE(H2)</f>
+        <v>9</v>
       </c>
       <c r="I72" s="35">
         <f>VALUE(I2)</f>
@@ -9724,63 +11232,83 @@
       <c r="K72" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
+      <c r="L72" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M72" s="35">
+        <v>122</v>
+      </c>
+      <c r="N72" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O72" s="35">
+        <v>129</v>
+      </c>
+      <c r="P72" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q72" s="35">
+        <v>296</v>
+      </c>
+      <c r="R72" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S72" s="35">
+        <v>120</v>
+      </c>
+      <c r="T72" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U72" s="35">
+        <v>121</v>
+      </c>
       <c r="V72" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="37" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Z72" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="35" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B73" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C73" s="35">
-        <f t="shared" ref="C73:H73" si="38">VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D73" s="35">
-        <f t="shared" si="38"/>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E73" s="35">
-        <f t="shared" si="38"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F73" s="35">
-        <f t="shared" si="38"/>
-        <v>2009</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G73" s="35">
-        <f t="shared" si="38"/>
-        <v>2022</v>
+        <f>VALUE(G2-G2-1)</f>
+        <v>-1</v>
       </c>
       <c r="H73" s="35">
-        <f t="shared" si="38"/>
+        <f>VALUE(H2)</f>
         <v>9</v>
       </c>
       <c r="I73" s="35">
-        <f>VALUE(I2+1)</f>
-        <v>12</v>
+        <f>VALUE(I2)</f>
+        <v>11</v>
       </c>
       <c r="J73" s="35">
         <f>VALUE(J2)</f>
@@ -9789,83 +11317,63 @@
       <c r="K73" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L73" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M73" s="35">
-        <v>122</v>
-      </c>
-      <c r="N73" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O73" s="35">
-        <v>129</v>
-      </c>
-      <c r="P73" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q73" s="35">
-        <v>296</v>
-      </c>
-      <c r="R73" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S73" s="35">
-        <v>120</v>
-      </c>
-      <c r="T73" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U73" s="35">
-        <v>121</v>
-      </c>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
       <c r="V73" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="37" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="Z73" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="35" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C74" s="35">
-        <f t="shared" ref="C74:H74" si="39">VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D74" s="35">
-        <f t="shared" si="39"/>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E74" s="35">
-        <f t="shared" si="39"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F74" s="35">
-        <f t="shared" si="39"/>
-        <v>2009</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G74" s="35">
-        <f t="shared" si="39"/>
+        <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H74" s="35">
-        <f t="shared" si="39"/>
-        <v>9</v>
+        <f>VALUE(H2-1)</f>
+        <v>8</v>
       </c>
       <c r="I74" s="35">
-        <f>VALUE(I2-I2)</f>
-        <v>0</v>
+        <f>VALUE(I2)</f>
+        <v>11</v>
       </c>
       <c r="J74" s="35">
         <f>VALUE(J2)</f>
@@ -9874,63 +11382,83 @@
       <c r="K74" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
+      <c r="L74" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M74" s="35">
+        <v>122</v>
+      </c>
+      <c r="N74" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O74" s="35">
+        <v>129</v>
+      </c>
+      <c r="P74" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q74" s="35">
+        <v>296</v>
+      </c>
+      <c r="R74" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S74" s="35">
+        <v>120</v>
+      </c>
+      <c r="T74" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U74" s="35">
+        <v>121</v>
+      </c>
       <c r="V74" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="37" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="Z74" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="35" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B75" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C75" s="35">
-        <f t="shared" ref="C75:H75" si="40">VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D75" s="35">
-        <f t="shared" si="40"/>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E75" s="35">
-        <f t="shared" si="40"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F75" s="35">
-        <f t="shared" si="40"/>
-        <v>2009</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G75" s="35">
-        <f t="shared" si="40"/>
+        <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H75" s="35">
-        <f t="shared" si="40"/>
-        <v>9</v>
+        <f>VALUE(H2-H2)</f>
+        <v>0</v>
       </c>
       <c r="I75" s="35">
-        <f>VALUE(I2-I2-1)</f>
-        <v>-1</v>
+        <f>VALUE(I2)</f>
+        <v>11</v>
       </c>
       <c r="J75" s="35">
         <f>VALUE(J2)</f>
@@ -9939,83 +11467,63 @@
       <c r="K75" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L75" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M75" s="35">
-        <v>122</v>
-      </c>
-      <c r="N75" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O75" s="35">
-        <v>129</v>
-      </c>
-      <c r="P75" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q75" s="35">
-        <v>296</v>
-      </c>
-      <c r="R75" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S75" s="35">
-        <v>120</v>
-      </c>
-      <c r="T75" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U75" s="35">
-        <v>121</v>
-      </c>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
       <c r="V75" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
       <c r="Y75" s="37" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Z75" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="35" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C76" s="35">
-        <f t="shared" ref="C76:H76" si="41">VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D76" s="35">
-        <f t="shared" si="41"/>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E76" s="35">
-        <f t="shared" si="41"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F76" s="35">
-        <f t="shared" si="41"/>
-        <v>2009</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G76" s="35">
-        <f t="shared" si="41"/>
+        <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H76" s="35">
-        <f t="shared" si="41"/>
-        <v>9</v>
+        <f>VALUE(H2-H2-1)</f>
+        <v>-1</v>
       </c>
       <c r="I76" s="35">
-        <f>VALUE(I2+H2+1)</f>
-        <v>21</v>
+        <f>VALUE(I2)</f>
+        <v>11</v>
       </c>
       <c r="J76" s="35">
         <f>VALUE(J2)</f>
@@ -10024,63 +11532,83 @@
       <c r="K76" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
+      <c r="L76" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M76" s="35">
+        <v>122</v>
+      </c>
+      <c r="N76" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O76" s="35">
+        <v>129</v>
+      </c>
+      <c r="P76" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q76" s="35">
+        <v>296</v>
+      </c>
+      <c r="R76" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S76" s="35">
+        <v>120</v>
+      </c>
+      <c r="T76" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U76" s="35">
+        <v>121</v>
+      </c>
       <c r="V76" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
       <c r="Y76" s="37" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z76" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="35" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B77" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C77" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D77" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E77" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F77" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G77" s="35">
         <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H77" s="35">
+        <f>VALUE(H2+I2)</f>
+        <v>20</v>
+      </c>
+      <c r="I77" s="35">
         <f>VALUE(I2)</f>
         <v>11</v>
-      </c>
-      <c r="I77" s="35">
-        <f>VALUE(H2)</f>
-        <v>9</v>
       </c>
       <c r="J77" s="35">
         <f>VALUE(J2)</f>
@@ -10089,39 +11617,19 @@
       <c r="K77" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L77" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M77" s="35">
-        <v>122</v>
-      </c>
-      <c r="N77" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O77" s="35">
-        <v>129</v>
-      </c>
-      <c r="P77" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q77" s="35">
-        <v>296</v>
-      </c>
-      <c r="R77" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S77" s="35">
-        <v>120</v>
-      </c>
-      <c r="T77" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U77" s="35">
-        <v>121</v>
-      </c>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
       <c r="V77" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W77" s="35"/>
       <c r="X77" s="35"/>
@@ -10129,257 +11637,278 @@
         <v>873</v>
       </c>
       <c r="Z77" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="35" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C78" s="35">
-        <f t="shared" ref="C78:I78" si="42">VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C78:H78" si="43">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D78" s="35">
-        <f t="shared" si="42"/>
-        <v>201</v>
+        <f t="shared" si="43"/>
+        <v>335</v>
       </c>
       <c r="E78" s="35">
-        <f t="shared" si="42"/>
-        <v>100</v>
+        <f t="shared" si="43"/>
+        <v>10</v>
       </c>
       <c r="F78" s="35">
-        <f t="shared" si="42"/>
-        <v>2009</v>
+        <f t="shared" si="43"/>
+        <v>2010</v>
       </c>
       <c r="G78" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2022</v>
       </c>
       <c r="H78" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="I78" s="35">
-        <f t="shared" si="42"/>
-        <v>11</v>
+        <f>VALUE(I2+1)</f>
+        <v>12</v>
       </c>
       <c r="J78" s="35">
-        <f>VALUE(J2-1)</f>
-        <v>1199</v>
+        <f>VALUE(J2)</f>
+        <v>1200</v>
       </c>
       <c r="K78" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
+      <c r="L78" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M78" s="35">
+        <v>122</v>
+      </c>
+      <c r="N78" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O78" s="35">
+        <v>129</v>
+      </c>
+      <c r="P78" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q78" s="35">
+        <v>296</v>
+      </c>
+      <c r="R78" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S78" s="35">
+        <v>120</v>
+      </c>
+      <c r="T78" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U78" s="35">
+        <v>121</v>
+      </c>
       <c r="V78" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W78" s="35"/>
       <c r="X78" s="35"/>
       <c r="Y78" s="37" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Z78" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="35" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B79" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C79" s="35">
-        <f t="shared" ref="C79:I79" si="43">VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C79:H79" si="44">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D79" s="35">
-        <f t="shared" si="43"/>
-        <v>201</v>
+        <f t="shared" si="44"/>
+        <v>335</v>
       </c>
       <c r="E79" s="35">
-        <f t="shared" si="43"/>
-        <v>100</v>
+        <f t="shared" si="44"/>
+        <v>10</v>
       </c>
       <c r="F79" s="35">
-        <f t="shared" si="43"/>
-        <v>2009</v>
+        <f t="shared" si="44"/>
+        <v>2010</v>
       </c>
       <c r="G79" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2022</v>
       </c>
       <c r="H79" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="I79" s="35">
-        <f t="shared" si="43"/>
-        <v>11</v>
+        <f>VALUE(I2-I2)</f>
+        <v>0</v>
       </c>
       <c r="J79" s="35">
-        <f>VALUE(J2-J2)</f>
-        <v>0</v>
+        <f>VALUE(J2)</f>
+        <v>1200</v>
       </c>
       <c r="K79" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L79" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M79" s="35">
-        <v>122</v>
-      </c>
-      <c r="N79" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O79" s="35">
-        <v>129</v>
-      </c>
-      <c r="P79" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q79" s="35">
-        <v>296</v>
-      </c>
-      <c r="R79" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S79" s="35">
-        <v>120</v>
-      </c>
-      <c r="T79" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U79" s="35">
-        <v>121</v>
-      </c>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
       <c r="V79" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W79" s="35"/>
       <c r="X79" s="35"/>
       <c r="Y79" s="37" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="Z79" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="35" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C80" s="35">
-        <f t="shared" ref="C80:I80" si="44">VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C80:H80" si="45">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D80" s="35">
-        <f t="shared" si="44"/>
-        <v>201</v>
+        <f t="shared" si="45"/>
+        <v>335</v>
       </c>
       <c r="E80" s="35">
-        <f t="shared" si="44"/>
-        <v>100</v>
+        <f t="shared" si="45"/>
+        <v>10</v>
       </c>
       <c r="F80" s="35">
-        <f t="shared" si="44"/>
-        <v>2009</v>
+        <f t="shared" si="45"/>
+        <v>2010</v>
       </c>
       <c r="G80" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2022</v>
       </c>
       <c r="H80" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="I80" s="35">
-        <f t="shared" si="44"/>
-        <v>11</v>
+        <f>VALUE(I2-I2-1)</f>
+        <v>-1</v>
       </c>
       <c r="J80" s="35">
-        <f>VALUE(J2-J2-1)</f>
-        <v>-1</v>
+        <f>VALUE(J2)</f>
+        <v>1200</v>
       </c>
       <c r="K80" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
+      <c r="L80" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M80" s="35">
+        <v>122</v>
+      </c>
+      <c r="N80" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O80" s="35">
+        <v>129</v>
+      </c>
+      <c r="P80" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q80" s="35">
+        <v>296</v>
+      </c>
+      <c r="R80" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S80" s="35">
+        <v>120</v>
+      </c>
+      <c r="T80" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U80" s="35">
+        <v>121</v>
+      </c>
       <c r="V80" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W80" s="35"/>
       <c r="X80" s="35"/>
       <c r="Y80" s="37" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="Z80" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="35" t="s">
-        <v>939</v>
+        <v>897</v>
       </c>
       <c r="B81" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C81" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C81:H81" si="46">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D81" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="46"/>
+        <v>335</v>
       </c>
       <c r="E81" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
-      </c>
-      <c r="F81" s="35" t="s">
-        <v>930</v>
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="F81" s="35">
+        <f t="shared" si="46"/>
+        <v>2010</v>
       </c>
       <c r="G81" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="46"/>
         <v>2022</v>
       </c>
       <c r="H81" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="I81" s="35">
-        <f>VALUE(I2)</f>
-        <v>11</v>
+        <f>VALUE(I2+H2+1)</f>
+        <v>21</v>
       </c>
       <c r="J81" s="35">
         <f>VALUE(J2)</f>
@@ -10388,81 +11917,63 @@
       <c r="K81" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L81" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M81" s="35">
-        <v>122</v>
-      </c>
-      <c r="N81" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O81" s="35">
-        <v>129</v>
-      </c>
-      <c r="P81" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q81" s="35">
-        <v>296</v>
-      </c>
-      <c r="R81" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S81" s="35">
-        <v>120</v>
-      </c>
-      <c r="T81" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U81" s="35">
-        <v>121</v>
-      </c>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
       <c r="V81" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W81" s="35"/>
       <c r="X81" s="35"/>
       <c r="Y81" s="37" t="s">
-        <v>931</v>
+        <v>875</v>
       </c>
       <c r="Z81" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="35" t="s">
-        <v>940</v>
+        <v>898</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C82" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D82" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E82" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
-      </c>
-      <c r="F82" s="35" t="s">
-        <v>930</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>930</v>
+        <v>10</v>
+      </c>
+      <c r="F82" s="35">
+        <f>VALUE(F2)</f>
+        <v>2010</v>
+      </c>
+      <c r="G82" s="35">
+        <f>VALUE(G2)</f>
+        <v>2022</v>
       </c>
       <c r="H82" s="35">
+        <f>VALUE(I2)</f>
+        <v>11</v>
+      </c>
+      <c r="I82" s="35">
         <f>VALUE(H2)</f>
         <v>9</v>
-      </c>
-      <c r="I82" s="35">
-        <f>VALUE(I2)</f>
-        <v>11</v>
       </c>
       <c r="J82" s="35">
         <f>VALUE(J2)</f>
@@ -10471,213 +11982,237 @@
       <c r="K82" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
+      <c r="L82" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M82" s="35">
+        <v>122</v>
+      </c>
+      <c r="N82" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O82" s="35">
+        <v>129</v>
+      </c>
+      <c r="P82" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q82" s="35">
+        <v>296</v>
+      </c>
+      <c r="R82" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S82" s="35">
+        <v>120</v>
+      </c>
+      <c r="T82" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U82" s="35">
+        <v>121</v>
+      </c>
       <c r="V82" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W82" s="35"/>
       <c r="X82" s="35"/>
       <c r="Y82" s="37" t="s">
-        <v>933</v>
+        <v>873</v>
       </c>
       <c r="Z82" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="35" t="s">
-        <v>941</v>
+        <v>899</v>
       </c>
       <c r="B83" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C83" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C83:I83" si="47">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D83" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="47"/>
+        <v>335</v>
       </c>
       <c r="E83" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f t="shared" si="47"/>
+        <v>10</v>
       </c>
       <c r="F83" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f t="shared" si="47"/>
+        <v>2010</v>
       </c>
       <c r="G83" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="47"/>
         <v>2022</v>
       </c>
-      <c r="H83" s="35" t="s">
-        <v>930</v>
+      <c r="H83" s="35">
+        <f t="shared" si="47"/>
+        <v>9</v>
       </c>
       <c r="I83" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="J83" s="35">
-        <f>VALUE(J2)</f>
-        <v>1200</v>
+        <f>VALUE(J2-1)</f>
+        <v>1199</v>
       </c>
       <c r="K83" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L83" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M83" s="35">
-        <v>122</v>
-      </c>
-      <c r="N83" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O83" s="35">
-        <v>129</v>
-      </c>
-      <c r="P83" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q83" s="35">
-        <v>296</v>
-      </c>
-      <c r="R83" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S83" s="35">
-        <v>120</v>
-      </c>
-      <c r="T83" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U83" s="35">
-        <v>121</v>
-      </c>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
       <c r="V83" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W83" s="35"/>
       <c r="X83" s="35"/>
       <c r="Y83" s="37" t="s">
-        <v>932</v>
+        <v>877</v>
       </c>
       <c r="Z83" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="35" t="s">
-        <v>942</v>
+        <v>900</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C84" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C84:I84" si="48">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D84" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="48"/>
+        <v>335</v>
       </c>
       <c r="E84" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f t="shared" si="48"/>
+        <v>10</v>
       </c>
       <c r="F84" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f t="shared" si="48"/>
+        <v>2010</v>
       </c>
       <c r="G84" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="48"/>
         <v>2022</v>
       </c>
-      <c r="H84" s="35" t="s">
-        <v>930</v>
-      </c>
-      <c r="I84" s="35" t="s">
-        <v>930</v>
+      <c r="H84" s="35">
+        <f t="shared" si="48"/>
+        <v>9</v>
+      </c>
+      <c r="I84" s="35">
+        <f t="shared" si="48"/>
+        <v>11</v>
       </c>
       <c r="J84" s="35">
-        <f>VALUE(J2)</f>
-        <v>1200</v>
+        <f>VALUE(J2-J2)</f>
+        <v>0</v>
       </c>
       <c r="K84" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
+      <c r="L84" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M84" s="35">
+        <v>122</v>
+      </c>
+      <c r="N84" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O84" s="35">
+        <v>129</v>
+      </c>
+      <c r="P84" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q84" s="35">
+        <v>296</v>
+      </c>
+      <c r="R84" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S84" s="35">
+        <v>120</v>
+      </c>
+      <c r="T84" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U84" s="35">
+        <v>121</v>
+      </c>
       <c r="V84" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W84" s="35"/>
       <c r="X84" s="35"/>
       <c r="Y84" s="37" t="s">
-        <v>934</v>
+        <v>878</v>
       </c>
       <c r="Z84" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="35" t="s">
-        <v>943</v>
+        <v>901</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="C85" s="35" t="s">
-        <v>923</v>
+      <c r="C85" s="35">
+        <f t="shared" ref="C85:I85" si="49">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D85" s="35">
-        <f t="shared" ref="D85:J85" si="45">VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="49"/>
+        <v>335</v>
       </c>
       <c r="E85" s="35">
-        <f t="shared" si="45"/>
-        <v>100</v>
+        <f t="shared" si="49"/>
+        <v>10</v>
       </c>
       <c r="F85" s="35">
-        <f t="shared" si="45"/>
-        <v>2009</v>
+        <f t="shared" si="49"/>
+        <v>2010</v>
       </c>
       <c r="G85" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2022</v>
       </c>
       <c r="H85" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="I85" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="J85" s="35">
-        <f t="shared" si="45"/>
-        <v>1200</v>
+        <f>VALUE(J2-J2-1)</f>
+        <v>-1</v>
       </c>
       <c r="K85" s="36" t="s">
         <v>847</v>
@@ -10694,12 +12229,12 @@
       <c r="U85" s="35"/>
       <c r="V85" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W85" s="35"/>
       <c r="X85" s="35"/>
       <c r="Y85" s="37" t="s">
-        <v>659</v>
+        <v>878</v>
       </c>
       <c r="Z85" s="35" t="s">
         <v>793</v>
@@ -10707,41 +12242,40 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="35" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C86" s="35">
-        <f>VALUE(C2)+6.66666666666666E+29</f>
-        <v>6.6666666666666607E+29</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D86" s="35">
-        <f t="shared" ref="D86:J86" si="46">VALUE(D2)</f>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E86" s="35">
-        <f t="shared" si="46"/>
-        <v>100</v>
-      </c>
-      <c r="F86" s="35">
-        <f t="shared" si="46"/>
-        <v>2009</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>930</v>
       </c>
       <c r="G86" s="35">
-        <f t="shared" si="46"/>
+        <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H86" s="35">
-        <f t="shared" si="46"/>
+        <f>VALUE(H2)</f>
         <v>9</v>
       </c>
       <c r="I86" s="35">
-        <f t="shared" si="46"/>
+        <f>VALUE(I2)</f>
         <v>11</v>
       </c>
       <c r="J86" s="35">
-        <f t="shared" si="46"/>
+        <f>VALUE(J2)</f>
         <v>1200</v>
       </c>
       <c r="K86" s="36" t="s">
@@ -10779,12 +12313,12 @@
       </c>
       <c r="V86" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W86" s="35"/>
       <c r="X86" s="35"/>
       <c r="Y86" s="37" t="s">
-        <v>659</v>
+        <v>931</v>
       </c>
       <c r="Z86" s="35" t="s">
         <v>840</v>
@@ -10792,40 +12326,39 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="35" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B87" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C87" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>923</v>
+        <v>234</v>
+      </c>
+      <c r="D87" s="35">
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E87" s="35">
-        <f t="shared" ref="E87:J87" si="47">VALUE(E2)</f>
-        <v>100</v>
-      </c>
-      <c r="F87" s="35">
-        <f t="shared" si="47"/>
-        <v>2009</v>
-      </c>
-      <c r="G87" s="35">
-        <f t="shared" si="47"/>
-        <v>2022</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>930</v>
+      </c>
+      <c r="G87" s="35" t="s">
+        <v>930</v>
       </c>
       <c r="H87" s="35">
-        <f t="shared" si="47"/>
+        <f>VALUE(H2)</f>
         <v>9</v>
       </c>
       <c r="I87" s="35">
-        <f t="shared" si="47"/>
+        <f>VALUE(I2)</f>
         <v>11</v>
       </c>
       <c r="J87" s="35">
-        <f t="shared" si="47"/>
+        <f>VALUE(J2)</f>
         <v>1200</v>
       </c>
       <c r="K87" s="36" t="s">
@@ -10843,12 +12376,12 @@
       <c r="U87" s="35"/>
       <c r="V87" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W87" s="35"/>
       <c r="X87" s="35"/>
       <c r="Y87" s="37" t="s">
-        <v>659</v>
+        <v>933</v>
       </c>
       <c r="Z87" s="35" t="s">
         <v>793</v>
@@ -10856,41 +12389,40 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="35" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C88" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D88" s="35">
-        <f>VALUE(D2)+2.22222222222222E+32</f>
-        <v>2.2222222222222201E+32</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E88" s="35">
-        <f t="shared" ref="E88:J88" si="48">VALUE(E2)</f>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F88" s="35">
-        <f t="shared" si="48"/>
-        <v>2009</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G88" s="35">
-        <f t="shared" si="48"/>
+        <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
-      <c r="H88" s="35">
-        <f t="shared" si="48"/>
-        <v>9</v>
+      <c r="H88" s="35" t="s">
+        <v>930</v>
       </c>
       <c r="I88" s="35">
-        <f t="shared" si="48"/>
+        <f>VALUE(I2)</f>
         <v>11</v>
       </c>
       <c r="J88" s="35">
-        <f t="shared" si="48"/>
+        <f>VALUE(J2)</f>
         <v>1200</v>
       </c>
       <c r="K88" s="36" t="s">
@@ -10928,12 +12460,12 @@
       </c>
       <c r="V88" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W88" s="35"/>
       <c r="X88" s="35"/>
       <c r="Y88" s="37" t="s">
-        <v>659</v>
+        <v>932</v>
       </c>
       <c r="Z88" s="35" t="s">
         <v>840</v>
@@ -10941,37 +12473,36 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="35" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B89" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C89" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D89" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>923</v>
+        <v>335</v>
+      </c>
+      <c r="E89" s="35">
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F89" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G89" s="35">
         <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
-      <c r="H89" s="35">
-        <f>VALUE(H2)</f>
-        <v>9</v>
-      </c>
-      <c r="I89" s="35">
-        <f>VALUE(I2)</f>
-        <v>11</v>
+      <c r="H89" s="35" t="s">
+        <v>930</v>
+      </c>
+      <c r="I89" s="35" t="s">
+        <v>930</v>
       </c>
       <c r="J89" s="35">
         <f>VALUE(J2)</f>
@@ -10992,12 +12523,12 @@
       <c r="U89" s="35"/>
       <c r="V89" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W89" s="35"/>
       <c r="X89" s="35"/>
       <c r="Y89" s="37" t="s">
-        <v>659</v>
+        <v>934</v>
       </c>
       <c r="Z89" s="35" t="s">
         <v>793</v>
@@ -11005,79 +12536,58 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="35" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B90" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="C90" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+      <c r="C90" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="D90" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" ref="D90:J90" si="50">VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E90" s="35">
-        <f>VALUE(E2)+123456789123456000</f>
-        <v>1.234567891234561E+17</v>
+        <f t="shared" si="50"/>
+        <v>10</v>
       </c>
       <c r="F90" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <f t="shared" si="50"/>
+        <v>2010</v>
       </c>
       <c r="G90" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="50"/>
         <v>2022</v>
       </c>
       <c r="H90" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="50"/>
         <v>9</v>
       </c>
       <c r="I90" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="50"/>
         <v>11</v>
       </c>
       <c r="J90" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="50"/>
         <v>1200</v>
       </c>
       <c r="K90" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L90" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M90" s="35">
-        <v>122</v>
-      </c>
-      <c r="N90" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O90" s="35">
-        <v>129</v>
-      </c>
-      <c r="P90" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q90" s="35">
-        <v>296</v>
-      </c>
-      <c r="R90" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S90" s="35">
-        <v>120</v>
-      </c>
-      <c r="T90" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U90" s="35">
-        <v>121</v>
-      </c>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
       <c r="V90" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W90" s="35"/>
       <c r="X90" s="35"/>
@@ -11085,63 +12595,84 @@
         <v>659</v>
       </c>
       <c r="Z90" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="35" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C91" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)+6.66666666666666E+29</f>
+        <v>6.6666666666666607E+29</v>
       </c>
       <c r="D91" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" ref="D91:J91" si="51">VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E91" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
-      </c>
-      <c r="F91" s="35" t="s">
-        <v>923</v>
+        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="F91" s="35">
+        <f t="shared" si="51"/>
+        <v>2010</v>
       </c>
       <c r="G91" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="51"/>
         <v>2022</v>
       </c>
       <c r="H91" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="I91" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="51"/>
         <v>11</v>
       </c>
       <c r="J91" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="51"/>
         <v>1200</v>
       </c>
       <c r="K91" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
+      <c r="L91" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M91" s="35">
+        <v>122</v>
+      </c>
+      <c r="N91" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O91" s="35">
+        <v>129</v>
+      </c>
+      <c r="P91" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q91" s="35">
+        <v>296</v>
+      </c>
+      <c r="R91" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S91" s="35">
+        <v>120</v>
+      </c>
+      <c r="T91" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U91" s="35">
+        <v>121</v>
+      </c>
       <c r="V91" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W91" s="35"/>
       <c r="X91" s="35"/>
@@ -11149,84 +12680,63 @@
         <v>659</v>
       </c>
       <c r="Z91" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="35" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B92" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C92" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
-      </c>
-      <c r="D92" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>234</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="E92" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f t="shared" ref="E92:J92" si="52">VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F92" s="35">
-        <f>VALUE(F2)+123456789123456000</f>
-        <v>1.2345678912345802E+17</v>
+        <f t="shared" si="52"/>
+        <v>2010</v>
       </c>
       <c r="G92" s="35">
-        <f>VALUE(G2)</f>
+        <f t="shared" si="52"/>
         <v>2022</v>
       </c>
       <c r="H92" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="I92" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="52"/>
         <v>11</v>
       </c>
       <c r="J92" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="52"/>
         <v>1200</v>
       </c>
       <c r="K92" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L92" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M92" s="35">
-        <v>122</v>
-      </c>
-      <c r="N92" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O92" s="35">
-        <v>129</v>
-      </c>
-      <c r="P92" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q92" s="35">
-        <v>296</v>
-      </c>
-      <c r="R92" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S92" s="35">
-        <v>120</v>
-      </c>
-      <c r="T92" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U92" s="35">
-        <v>121</v>
-      </c>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
       <c r="V92" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W92" s="35"/>
       <c r="X92" s="35"/>
@@ -11234,63 +12744,84 @@
         <v>659</v>
       </c>
       <c r="Z92" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="35" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C93" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D93" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f>VALUE(D2)+2.22222222222222E+32</f>
+        <v>2.2222222222222201E+32</v>
       </c>
       <c r="E93" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f t="shared" ref="E93:J93" si="53">VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F93" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
-      </c>
-      <c r="G93" s="35" t="s">
-        <v>923</v>
+        <f t="shared" si="53"/>
+        <v>2010</v>
+      </c>
+      <c r="G93" s="35">
+        <f t="shared" si="53"/>
+        <v>2022</v>
       </c>
       <c r="H93" s="35">
-        <f>VALUE(H2)</f>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="I93" s="35">
-        <f>VALUE(I2)</f>
+        <f t="shared" si="53"/>
         <v>11</v>
       </c>
       <c r="J93" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="53"/>
         <v>1200</v>
       </c>
       <c r="K93" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
+      <c r="L93" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M93" s="35">
+        <v>122</v>
+      </c>
+      <c r="N93" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O93" s="35">
+        <v>129</v>
+      </c>
+      <c r="P93" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q93" s="35">
+        <v>296</v>
+      </c>
+      <c r="R93" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S93" s="35">
+        <v>120</v>
+      </c>
+      <c r="T93" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U93" s="35">
+        <v>121</v>
+      </c>
       <c r="V93" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W93" s="35"/>
       <c r="X93" s="35"/>
@@ -11298,35 +12829,34 @@
         <v>659</v>
       </c>
       <c r="Z93" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="35" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B94" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C94" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D94" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
-      </c>
-      <c r="E94" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <v>335</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="F94" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G94" s="35">
-        <f>VALUE(G2)+123456789123456000</f>
-        <v>1.2345678912345802E+17</v>
+        <f>VALUE(G2)</f>
+        <v>2022</v>
       </c>
       <c r="H94" s="35">
         <f>VALUE(H2)</f>
@@ -11343,39 +12873,19 @@
       <c r="K94" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L94" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M94" s="35">
-        <v>122</v>
-      </c>
-      <c r="N94" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O94" s="35">
-        <v>129</v>
-      </c>
-      <c r="P94" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q94" s="35">
-        <v>296</v>
-      </c>
-      <c r="R94" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S94" s="35">
-        <v>120</v>
-      </c>
-      <c r="T94" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U94" s="35">
-        <v>121</v>
-      </c>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
       <c r="V94" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W94" s="35"/>
       <c r="X94" s="35"/>
@@ -11383,38 +12893,39 @@
         <v>659</v>
       </c>
       <c r="Z94" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="35" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C95" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D95" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E95" s="35">
-        <f>VALUE(E2)</f>
-        <v>100</v>
+        <f>VALUE(E2)+123456789123456000</f>
+        <v>1.2345678912345602E+17</v>
       </c>
       <c r="F95" s="35">
         <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G95" s="35">
         <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
-      <c r="H95" s="35" t="s">
-        <v>923</v>
+      <c r="H95" s="35">
+        <f>VALUE(H2)</f>
+        <v>9</v>
       </c>
       <c r="I95" s="35">
         <f>VALUE(I2)</f>
@@ -11427,19 +12938,39 @@
       <c r="K95" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
+      <c r="L95" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M95" s="35">
+        <v>122</v>
+      </c>
+      <c r="N95" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O95" s="35">
+        <v>129</v>
+      </c>
+      <c r="P95" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q95" s="35">
+        <v>296</v>
+      </c>
+      <c r="R95" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S95" s="35">
+        <v>120</v>
+      </c>
+      <c r="T95" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U95" s="35">
+        <v>121</v>
+      </c>
       <c r="V95" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W95" s="35"/>
       <c r="X95" s="35"/>
@@ -11447,39 +12978,38 @@
         <v>659</v>
       </c>
       <c r="Z95" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="35" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B96" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C96" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D96" s="35">
         <f>VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E96" s="35">
         <f>VALUE(E2)</f>
-        <v>100</v>
-      </c>
-      <c r="F96" s="35">
-        <f>VALUE(F2)</f>
-        <v>2009</v>
+        <v>10</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="G96" s="35">
         <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H96" s="35">
-        <f>VALUE(H2)+123456789123456000</f>
-        <v>1.2345678912345602E+17</v>
+        <f>VALUE(H2)</f>
+        <v>9</v>
       </c>
       <c r="I96" s="35">
         <f>VALUE(I2)</f>
@@ -11492,39 +13022,19 @@
       <c r="K96" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L96" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M96" s="35">
-        <v>122</v>
-      </c>
-      <c r="N96" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O96" s="35">
-        <v>129</v>
-      </c>
-      <c r="P96" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q96" s="35">
-        <v>296</v>
-      </c>
-      <c r="R96" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S96" s="35">
-        <v>120</v>
-      </c>
-      <c r="T96" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U96" s="35">
-        <v>121</v>
-      </c>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
       <c r="V96" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W96" s="35"/>
       <c r="X96" s="35"/>
@@ -11532,42 +13042,43 @@
         <v>659</v>
       </c>
       <c r="Z96" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="35" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C97" s="35">
-        <f t="shared" ref="C97:H97" si="49">VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D97" s="35">
-        <f t="shared" si="49"/>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E97" s="35">
-        <f t="shared" si="49"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F97" s="35">
-        <f t="shared" si="49"/>
-        <v>2009</v>
+        <f>VALUE(F2)+123456789123456000</f>
+        <v>1.2345678912345802E+17</v>
       </c>
       <c r="G97" s="35">
-        <f t="shared" si="49"/>
+        <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H97" s="35">
-        <f t="shared" si="49"/>
+        <f>VALUE(H2)</f>
         <v>9</v>
       </c>
-      <c r="I97" s="35" t="s">
-        <v>923</v>
+      <c r="I97" s="35">
+        <f>VALUE(I2)</f>
+        <v>11</v>
       </c>
       <c r="J97" s="35">
         <f>VALUE(J2)</f>
@@ -11576,19 +13087,39 @@
       <c r="K97" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
+      <c r="L97" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M97" s="35">
+        <v>122</v>
+      </c>
+      <c r="N97" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O97" s="35">
+        <v>129</v>
+      </c>
+      <c r="P97" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q97" s="35">
+        <v>296</v>
+      </c>
+      <c r="R97" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S97" s="35">
+        <v>120</v>
+      </c>
+      <c r="T97" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U97" s="35">
+        <v>121</v>
+      </c>
       <c r="V97" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W97" s="35"/>
       <c r="X97" s="35"/>
@@ -11596,43 +13127,42 @@
         <v>659</v>
       </c>
       <c r="Z97" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="35" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B98" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C98" s="35">
-        <f t="shared" ref="C98:H98" si="50">VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D98" s="35">
-        <f t="shared" si="50"/>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E98" s="35">
-        <f t="shared" si="50"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F98" s="35">
-        <f t="shared" si="50"/>
-        <v>2009</v>
-      </c>
-      <c r="G98" s="35">
-        <f t="shared" si="50"/>
-        <v>2022</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
+      </c>
+      <c r="G98" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="H98" s="35">
-        <f t="shared" si="50"/>
+        <f>VALUE(H2)</f>
         <v>9</v>
       </c>
       <c r="I98" s="35">
-        <f>VALUE(I2)+123456789123456000</f>
-        <v>1.2345678912345602E+17</v>
+        <f>VALUE(I2)</f>
+        <v>11</v>
       </c>
       <c r="J98" s="35">
         <f>VALUE(J2)</f>
@@ -11641,39 +13171,19 @@
       <c r="K98" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L98" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="M98" s="35">
-        <v>122</v>
-      </c>
-      <c r="N98" s="35" t="s">
-        <v>836</v>
-      </c>
-      <c r="O98" s="35">
-        <v>129</v>
-      </c>
-      <c r="P98" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q98" s="35">
-        <v>296</v>
-      </c>
-      <c r="R98" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="S98" s="35">
-        <v>120</v>
-      </c>
-      <c r="T98" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="U98" s="35">
-        <v>121</v>
-      </c>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
       <c r="V98" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W98" s="35"/>
       <c r="X98" s="35"/>
@@ -11681,63 +13191,84 @@
         <v>659</v>
       </c>
       <c r="Z98" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="35" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C99" s="35">
-        <f t="shared" ref="C99:I99" si="51">VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D99" s="35">
-        <f t="shared" si="51"/>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E99" s="35">
-        <f t="shared" si="51"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F99" s="35">
-        <f t="shared" si="51"/>
-        <v>2009</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G99" s="35">
-        <f t="shared" si="51"/>
-        <v>2022</v>
+        <f>VALUE(G2)+123456789123456000</f>
+        <v>1.2345678912345802E+17</v>
       </c>
       <c r="H99" s="35">
-        <f t="shared" si="51"/>
+        <f>VALUE(H2)</f>
         <v>9</v>
       </c>
       <c r="I99" s="35">
-        <f t="shared" si="51"/>
+        <f>VALUE(I2)</f>
         <v>11</v>
       </c>
-      <c r="J99" s="35" t="s">
-        <v>923</v>
+      <c r="J99" s="35">
+        <f>VALUE(J2)</f>
+        <v>1200</v>
       </c>
       <c r="K99" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="35"/>
-      <c r="T99" s="35"/>
-      <c r="U99" s="35"/>
+      <c r="L99" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M99" s="35">
+        <v>122</v>
+      </c>
+      <c r="N99" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O99" s="35">
+        <v>129</v>
+      </c>
+      <c r="P99" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q99" s="35">
+        <v>296</v>
+      </c>
+      <c r="R99" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S99" s="35">
+        <v>120</v>
+      </c>
+      <c r="T99" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U99" s="35">
+        <v>121</v>
+      </c>
       <c r="V99" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W99" s="35"/>
       <c r="X99" s="35"/>
@@ -11745,50 +13276,49 @@
         <v>659</v>
       </c>
       <c r="Z99" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="35" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B100" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C100" s="35">
-        <f t="shared" ref="C100:J100" si="52">VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D100" s="35">
-        <f t="shared" si="52"/>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E100" s="35">
-        <f t="shared" si="52"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F100" s="35">
-        <f t="shared" si="52"/>
-        <v>2009</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G100" s="35">
-        <f t="shared" si="52"/>
+        <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
-      <c r="H100" s="35">
-        <f t="shared" si="52"/>
-        <v>9</v>
+      <c r="H100" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="I100" s="35">
-        <f t="shared" si="52"/>
+        <f>VALUE(I2)</f>
         <v>11</v>
       </c>
       <c r="J100" s="35">
-        <f t="shared" si="52"/>
+        <f>VALUE(J2)</f>
         <v>1200</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>923</v>
+        <v>847</v>
       </c>
       <c r="L100" s="35"/>
       <c r="M100" s="35"/>
@@ -11802,7 +13332,7 @@
       <c r="U100" s="35"/>
       <c r="V100" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W100" s="35"/>
       <c r="X100" s="35"/>
@@ -11815,91 +13345,111 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="35" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C101" s="35">
-        <f>VALUE(C2-C2-1)</f>
-        <v>-1</v>
+        <f>VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D101" s="35">
-        <f t="shared" ref="D101:J101" si="53">VALUE(D2)</f>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E101" s="35">
-        <f t="shared" si="53"/>
-        <v>100</v>
+        <f>VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F101" s="35">
-        <f t="shared" si="53"/>
-        <v>2009</v>
+        <f>VALUE(F2)</f>
+        <v>2010</v>
       </c>
       <c r="G101" s="35">
-        <f t="shared" si="53"/>
+        <f>VALUE(G2)</f>
         <v>2022</v>
       </c>
       <c r="H101" s="35">
-        <f t="shared" si="53"/>
-        <v>9</v>
+        <f>VALUE(H2)+123456789123456000</f>
+        <v>1.2345678912345602E+17</v>
       </c>
       <c r="I101" s="35">
-        <f t="shared" si="53"/>
+        <f>VALUE(I2)</f>
         <v>11</v>
       </c>
       <c r="J101" s="35">
-        <f t="shared" si="53"/>
+        <f>VALUE(J2)</f>
         <v>1200</v>
       </c>
       <c r="K101" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L101" s="35"/>
-      <c r="M101" s="35"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="35"/>
+      <c r="L101" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M101" s="35">
+        <v>122</v>
+      </c>
+      <c r="N101" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O101" s="35">
+        <v>129</v>
+      </c>
+      <c r="P101" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q101" s="35">
+        <v>296</v>
+      </c>
+      <c r="R101" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S101" s="35">
+        <v>120</v>
+      </c>
+      <c r="T101" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U101" s="35">
+        <v>121</v>
+      </c>
       <c r="V101" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W101" s="35"/>
       <c r="X101" s="35"/>
       <c r="Y101" s="37" t="s">
-        <v>938</v>
+        <v>659</v>
       </c>
       <c r="Z101" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="35" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B102" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C102" s="35">
-        <f>VALUE(C2+C2+10)</f>
-        <v>144</v>
+        <f t="shared" ref="C102:H102" si="54">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D102" s="35">
-        <f t="shared" ref="D102:J102" si="54">VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="54"/>
+        <v>335</v>
       </c>
       <c r="E102" s="35">
         <f t="shared" si="54"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F102" s="35">
         <f t="shared" si="54"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G102" s="35">
         <f t="shared" si="54"/>
@@ -11909,12 +13459,11 @@
         <f t="shared" si="54"/>
         <v>9</v>
       </c>
-      <c r="I102" s="35">
-        <f t="shared" si="54"/>
-        <v>11</v>
+      <c r="I102" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="J102" s="35">
-        <f t="shared" si="54"/>
+        <f>VALUE(J2)</f>
         <v>1200</v>
       </c>
       <c r="K102" s="36" t="s">
@@ -11932,12 +13481,12 @@
       <c r="U102" s="35"/>
       <c r="V102" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W102" s="35"/>
       <c r="X102" s="35"/>
       <c r="Y102" s="37" t="s">
-        <v>938</v>
+        <v>659</v>
       </c>
       <c r="Z102" s="35" t="s">
         <v>793</v>
@@ -11945,26 +13494,26 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="35" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C103" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C103:H103" si="55">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D103" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="55"/>
+        <v>335</v>
       </c>
       <c r="E103" s="35">
-        <f t="shared" ref="E103:J103" si="55">VALUE(E2)</f>
-        <v>100</v>
+        <f t="shared" si="55"/>
+        <v>10</v>
       </c>
       <c r="F103" s="35">
         <f t="shared" si="55"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G103" s="35">
         <f t="shared" si="55"/>
@@ -11975,61 +13524,81 @@
         <v>9</v>
       </c>
       <c r="I103" s="35">
-        <f t="shared" si="55"/>
-        <v>11</v>
+        <f>VALUE(I2)+123456789123456000</f>
+        <v>1.2345678912345602E+17</v>
       </c>
       <c r="J103" s="35">
-        <f t="shared" si="55"/>
+        <f>VALUE(J2)</f>
         <v>1200</v>
       </c>
       <c r="K103" s="36" t="s">
         <v>847</v>
       </c>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
-      <c r="S103" s="35"/>
-      <c r="T103" s="35"/>
-      <c r="U103" s="35"/>
+      <c r="L103" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="M103" s="35">
+        <v>122</v>
+      </c>
+      <c r="N103" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="O103" s="35">
+        <v>129</v>
+      </c>
+      <c r="P103" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q103" s="35">
+        <v>296</v>
+      </c>
+      <c r="R103" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="S103" s="35">
+        <v>120</v>
+      </c>
+      <c r="T103" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="U103" s="35">
+        <v>121</v>
+      </c>
       <c r="V103" s="35">
-        <f>VALUE(V2+100)</f>
-        <v>845</v>
+        <f>VALUE(V2)</f>
+        <v>1444</v>
       </c>
       <c r="W103" s="35"/>
       <c r="X103" s="35"/>
       <c r="Y103" s="37" t="s">
-        <v>972</v>
+        <v>659</v>
       </c>
       <c r="Z103" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="35" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B104" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C104" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C104:I104" si="56">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D104" s="35">
-        <f>VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="56"/>
+        <v>335</v>
       </c>
       <c r="E104" s="35">
-        <f t="shared" ref="E104:J104" si="56">VALUE(E2)</f>
-        <v>100</v>
+        <f t="shared" si="56"/>
+        <v>10</v>
       </c>
       <c r="F104" s="35">
         <f t="shared" si="56"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G104" s="35">
         <f t="shared" si="56"/>
@@ -12043,9 +13612,8 @@
         <f t="shared" si="56"/>
         <v>11</v>
       </c>
-      <c r="J104" s="35">
-        <f t="shared" si="56"/>
-        <v>1200</v>
+      <c r="J104" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="K104" s="36" t="s">
         <v>847</v>
@@ -12061,13 +13629,13 @@
       <c r="T104" s="35"/>
       <c r="U104" s="35"/>
       <c r="V104" s="35">
-        <f>VALUE(V2-V2-1)</f>
-        <v>-1</v>
+        <f>VALUE(V2)</f>
+        <v>1444</v>
       </c>
       <c r="W104" s="35"/>
       <c r="X104" s="35"/>
       <c r="Y104" s="37" t="s">
-        <v>972</v>
+        <v>659</v>
       </c>
       <c r="Z104" s="35" t="s">
         <v>793</v>
@@ -12075,26 +13643,26 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="35" t="s">
-        <v>1007</v>
+        <v>958</v>
       </c>
       <c r="B105" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C105" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C105:J105" si="57">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D105" s="35">
-        <f t="shared" ref="D105:J105" si="57">VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="57"/>
+        <v>335</v>
       </c>
       <c r="E105" s="35">
         <f t="shared" si="57"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F105" s="35">
         <f t="shared" si="57"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G105" s="35">
         <f t="shared" si="57"/>
@@ -12113,7 +13681,7 @@
         <v>1200</v>
       </c>
       <c r="K105" s="36" t="s">
-        <v>847</v>
+        <v>923</v>
       </c>
       <c r="L105" s="35"/>
       <c r="M105" s="35"/>
@@ -12127,13 +13695,12 @@
       <c r="U105" s="35"/>
       <c r="V105" s="35">
         <f>VALUE(V2)</f>
-        <v>745</v>
+        <v>1444</v>
       </c>
       <c r="W105" s="35"/>
       <c r="X105" s="35"/>
-      <c r="Y105" s="38">
-        <f>VALUE(V2)</f>
-        <v>745</v>
+      <c r="Y105" s="37" t="s">
+        <v>659</v>
       </c>
       <c r="Z105" s="35" t="s">
         <v>793</v>
@@ -12141,26 +13708,26 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="35" t="s">
-        <v>1002</v>
+        <v>959</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
       <c r="C106" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2-C2-1)</f>
+        <v>-1</v>
       </c>
       <c r="D106" s="35">
         <f t="shared" ref="D106:J106" si="58">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E106" s="35">
         <f t="shared" si="58"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F106" s="35">
         <f t="shared" si="58"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G106" s="35">
         <f t="shared" si="58"/>
@@ -12192,41 +13759,40 @@
       <c r="T106" s="35"/>
       <c r="U106" s="35"/>
       <c r="V106" s="35">
-        <f>VALUE(V3)</f>
-        <v>746</v>
+        <f>VALUE(V2)</f>
+        <v>1444</v>
       </c>
       <c r="W106" s="35"/>
       <c r="X106" s="35"/>
-      <c r="Y106" s="38">
-        <f>VALUE(V3)</f>
-        <v>746</v>
+      <c r="Y106" s="37" t="s">
+        <v>938</v>
       </c>
       <c r="Z106" s="35" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="35" t="s">
-        <v>1003</v>
+        <v>960</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C107" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f>VALUE(C2+C2+10)</f>
+        <v>478</v>
       </c>
       <c r="D107" s="35">
-        <f t="shared" ref="D107:I107" si="59">VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" ref="D107:J107" si="59">VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E107" s="35">
         <f t="shared" si="59"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F107" s="35">
         <f t="shared" si="59"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G107" s="35">
         <f t="shared" si="59"/>
@@ -12241,7 +13807,7 @@
         <v>11</v>
       </c>
       <c r="J107" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="59"/>
         <v>1200</v>
       </c>
       <c r="K107" s="36" t="s">
@@ -12258,13 +13824,13 @@
       <c r="T107" s="35"/>
       <c r="U107" s="35"/>
       <c r="V107" s="35">
-        <f>VALUE(V2+100)</f>
-        <v>845</v>
+        <f>VALUE(V2)</f>
+        <v>1444</v>
       </c>
       <c r="W107" s="35"/>
       <c r="X107" s="35"/>
       <c r="Y107" s="37" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="Z107" s="35" t="s">
         <v>793</v>
@@ -12272,26 +13838,26 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="35" t="s">
-        <v>1004</v>
+        <v>961</v>
       </c>
       <c r="B108" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C108" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D108" s="35">
-        <f t="shared" ref="D108:I108" si="60">VALUE(D2)</f>
-        <v>201</v>
+        <f>VALUE(D2)</f>
+        <v>335</v>
       </c>
       <c r="E108" s="35">
-        <f t="shared" si="60"/>
-        <v>100</v>
+        <f t="shared" ref="E108:J108" si="60">VALUE(E2)</f>
+        <v>10</v>
       </c>
       <c r="F108" s="35">
         <f t="shared" si="60"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G108" s="35">
         <f t="shared" si="60"/>
@@ -12306,7 +13872,7 @@
         <v>11</v>
       </c>
       <c r="J108" s="35">
-        <f>VALUE(J2)</f>
+        <f t="shared" si="60"/>
         <v>1200</v>
       </c>
       <c r="K108" s="36" t="s">
@@ -12323,13 +13889,13 @@
       <c r="T108" s="35"/>
       <c r="U108" s="35"/>
       <c r="V108" s="35">
-        <f>VALUE(V2-V2-1)</f>
-        <v>-1</v>
+        <f>VALUE(V2+100)</f>
+        <v>1544</v>
       </c>
       <c r="W108" s="35"/>
       <c r="X108" s="35"/>
       <c r="Y108" s="37" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="Z108" s="35" t="s">
         <v>793</v>
@@ -12337,26 +13903,26 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="35" t="s">
-        <v>1005</v>
+        <v>962</v>
       </c>
       <c r="B109" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C109" s="35">
-        <f>VALUE(C2)</f>
-        <v>67</v>
+        <f t="shared" ref="C109:J109" si="61">VALUE(C2)</f>
+        <v>234</v>
       </c>
       <c r="D109" s="35">
-        <f t="shared" ref="D109:J109" si="61">VALUE(D2)</f>
-        <v>201</v>
+        <f t="shared" si="61"/>
+        <v>335</v>
       </c>
       <c r="E109" s="35">
         <f t="shared" si="61"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F109" s="35">
         <f t="shared" si="61"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G109" s="35">
         <f t="shared" si="61"/>
@@ -12387,13 +13953,14 @@
       <c r="S109" s="35"/>
       <c r="T109" s="35"/>
       <c r="U109" s="35"/>
-      <c r="V109" s="35" t="s">
-        <v>333</v>
+      <c r="V109" s="35">
+        <f>VALUE(V2-V2-1)</f>
+        <v>-1</v>
       </c>
       <c r="W109" s="35"/>
       <c r="X109" s="35"/>
       <c r="Y109" s="37" t="s">
-        <v>661</v>
+        <v>970</v>
       </c>
       <c r="Z109" s="35" t="s">
         <v>793</v>
@@ -12401,26 +13968,26 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="35" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="B110" s="35" t="s">
         <v>793</v>
       </c>
       <c r="C110" s="35">
         <f>VALUE(C2)</f>
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D110" s="35">
         <f t="shared" ref="D110:J110" si="62">VALUE(D2)</f>
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E110" s="35">
         <f t="shared" si="62"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F110" s="35">
         <f t="shared" si="62"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G110" s="35">
         <f t="shared" si="62"/>
@@ -12451,13 +14018,15 @@
       <c r="S110" s="35"/>
       <c r="T110" s="35"/>
       <c r="U110" s="35"/>
-      <c r="V110" s="35" t="s">
-        <v>10</v>
+      <c r="V110" s="35">
+        <f>VALUE(V2)</f>
+        <v>1444</v>
       </c>
       <c r="W110" s="35"/>
       <c r="X110" s="35"/>
-      <c r="Y110" s="37" t="s">
-        <v>661</v>
+      <c r="Y110" s="38">
+        <f>VALUE(V2)</f>
+        <v>1444</v>
       </c>
       <c r="Z110" s="35" t="s">
         <v>793</v>
@@ -12465,20 +14034,46 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="35" t="s">
-        <v>814</v>
+        <v>1090</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>793</v>
-      </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="36"/>
+        <v>840</v>
+      </c>
+      <c r="C111" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D111" s="35">
+        <f t="shared" ref="D111:J111" si="63">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E111" s="35">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+      <c r="F111" s="35">
+        <f t="shared" si="63"/>
+        <v>2010</v>
+      </c>
+      <c r="G111" s="35">
+        <f t="shared" si="63"/>
+        <v>2022</v>
+      </c>
+      <c r="H111" s="35">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+      <c r="I111" s="35">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+      <c r="J111" s="35">
+        <f t="shared" si="63"/>
+        <v>1200</v>
+      </c>
+      <c r="K111" s="36" t="s">
+        <v>847</v>
+      </c>
       <c r="L111" s="35"/>
       <c r="M111" s="35"/>
       <c r="N111" s="35"/>
@@ -12489,34 +14084,62 @@
       <c r="S111" s="35"/>
       <c r="T111" s="35"/>
       <c r="U111" s="35"/>
-      <c r="V111" s="35"/>
-      <c r="W111" s="35">
-        <v>100</v>
-      </c>
-      <c r="X111" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="37"/>
+      <c r="V111" s="35">
+        <f>VALUE(V3)</f>
+        <v>1445</v>
+      </c>
+      <c r="W111" s="35"/>
+      <c r="X111" s="35"/>
+      <c r="Y111" s="38">
+        <f>VALUE(V3)</f>
+        <v>1445</v>
+      </c>
       <c r="Z111" s="35" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="35" t="s">
-        <v>815</v>
+        <v>992</v>
       </c>
       <c r="B112" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="36"/>
+      <c r="C112" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D112" s="35">
+        <f t="shared" ref="D112:I112" si="64">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E112" s="35">
+        <f t="shared" si="64"/>
+        <v>10</v>
+      </c>
+      <c r="F112" s="35">
+        <f t="shared" si="64"/>
+        <v>2010</v>
+      </c>
+      <c r="G112" s="35">
+        <f t="shared" si="64"/>
+        <v>2022</v>
+      </c>
+      <c r="H112" s="35">
+        <f t="shared" si="64"/>
+        <v>9</v>
+      </c>
+      <c r="I112" s="35">
+        <f t="shared" si="64"/>
+        <v>11</v>
+      </c>
+      <c r="J112" s="35">
+        <f>VALUE(J2)</f>
+        <v>1200</v>
+      </c>
+      <c r="K112" s="36" t="s">
+        <v>847</v>
+      </c>
       <c r="L112" s="35"/>
       <c r="M112" s="35"/>
       <c r="N112" s="35"/>
@@ -12527,34 +14150,61 @@
       <c r="S112" s="35"/>
       <c r="T112" s="35"/>
       <c r="U112" s="35"/>
-      <c r="V112" s="35"/>
-      <c r="W112" s="35">
-        <v>1</v>
-      </c>
-      <c r="X112" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y112" s="37"/>
+      <c r="V112" s="35">
+        <f>VALUE(V2+100)</f>
+        <v>1544</v>
+      </c>
+      <c r="W112" s="35"/>
+      <c r="X112" s="35"/>
+      <c r="Y112" s="37" t="s">
+        <v>970</v>
+      </c>
       <c r="Z112" s="35" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="35" t="s">
-        <v>816</v>
+        <v>993</v>
       </c>
       <c r="B113" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="36"/>
+      <c r="C113" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D113" s="35">
+        <f t="shared" ref="D113:I113" si="65">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E113" s="35">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="F113" s="35">
+        <f t="shared" si="65"/>
+        <v>2010</v>
+      </c>
+      <c r="G113" s="35">
+        <f t="shared" si="65"/>
+        <v>2022</v>
+      </c>
+      <c r="H113" s="35">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="I113" s="35">
+        <f t="shared" si="65"/>
+        <v>11</v>
+      </c>
+      <c r="J113" s="35">
+        <f>VALUE(J2)</f>
+        <v>1200</v>
+      </c>
+      <c r="K113" s="36" t="s">
+        <v>847</v>
+      </c>
       <c r="L113" s="35"/>
       <c r="M113" s="35"/>
       <c r="N113" s="35"/>
@@ -12565,34 +14215,61 @@
       <c r="S113" s="35"/>
       <c r="T113" s="35"/>
       <c r="U113" s="35"/>
-      <c r="V113" s="35"/>
-      <c r="W113" s="35">
-        <v>1</v>
-      </c>
-      <c r="X113" s="35">
-        <v>1</v>
-      </c>
-      <c r="Y113" s="37"/>
+      <c r="V113" s="35">
+        <f>VALUE(V2-V2-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="W113" s="35"/>
+      <c r="X113" s="35"/>
+      <c r="Y113" s="37" t="s">
+        <v>970</v>
+      </c>
       <c r="Z113" s="35" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="35" t="s">
-        <v>817</v>
+        <v>994</v>
       </c>
       <c r="B114" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="36"/>
+      <c r="C114" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D114" s="35">
+        <f t="shared" ref="D114:J114" si="66">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E114" s="35">
+        <f t="shared" si="66"/>
+        <v>10</v>
+      </c>
+      <c r="F114" s="35">
+        <f t="shared" si="66"/>
+        <v>2010</v>
+      </c>
+      <c r="G114" s="35">
+        <f t="shared" si="66"/>
+        <v>2022</v>
+      </c>
+      <c r="H114" s="35">
+        <f t="shared" si="66"/>
+        <v>9</v>
+      </c>
+      <c r="I114" s="35">
+        <f t="shared" si="66"/>
+        <v>11</v>
+      </c>
+      <c r="J114" s="35">
+        <f t="shared" si="66"/>
+        <v>1200</v>
+      </c>
+      <c r="K114" s="36" t="s">
+        <v>847</v>
+      </c>
       <c r="L114" s="35"/>
       <c r="M114" s="35"/>
       <c r="N114" s="35"/>
@@ -12603,34 +14280,60 @@
       <c r="S114" s="35"/>
       <c r="T114" s="35"/>
       <c r="U114" s="35"/>
-      <c r="V114" s="35"/>
-      <c r="W114" s="35">
-        <v>5000</v>
-      </c>
-      <c r="X114" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="37"/>
+      <c r="V114" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="W114" s="35"/>
+      <c r="X114" s="35"/>
+      <c r="Y114" s="37" t="s">
+        <v>661</v>
+      </c>
       <c r="Z114" s="35" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="35" t="s">
-        <v>818</v>
+        <v>995</v>
       </c>
       <c r="B115" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="36"/>
+      <c r="C115" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D115" s="35">
+        <f t="shared" ref="D115:J115" si="67">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E115" s="35">
+        <f t="shared" si="67"/>
+        <v>10</v>
+      </c>
+      <c r="F115" s="35">
+        <f t="shared" si="67"/>
+        <v>2010</v>
+      </c>
+      <c r="G115" s="35">
+        <f t="shared" si="67"/>
+        <v>2022</v>
+      </c>
+      <c r="H115" s="35">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="I115" s="35">
+        <f t="shared" si="67"/>
+        <v>11</v>
+      </c>
+      <c r="J115" s="35">
+        <f t="shared" si="67"/>
+        <v>1200</v>
+      </c>
+      <c r="K115" s="36" t="s">
+        <v>847</v>
+      </c>
       <c r="L115" s="35"/>
       <c r="M115" s="35"/>
       <c r="N115" s="35"/>
@@ -12641,21 +14344,21 @@
       <c r="S115" s="35"/>
       <c r="T115" s="35"/>
       <c r="U115" s="35"/>
-      <c r="V115" s="35"/>
-      <c r="W115" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="X115" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y115" s="37"/>
+      <c r="V115" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="W115" s="35"/>
+      <c r="X115" s="35"/>
+      <c r="Y115" s="37" t="s">
+        <v>661</v>
+      </c>
       <c r="Z115" s="35" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="35" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B116" s="35" t="s">
         <v>793</v>
@@ -12681,10 +14384,10 @@
       <c r="U116" s="35"/>
       <c r="V116" s="35"/>
       <c r="W116" s="35">
-        <v>10</v>
-      </c>
-      <c r="X116" s="35" t="s">
-        <v>333</v>
+        <v>100</v>
+      </c>
+      <c r="X116" s="35">
+        <v>0</v>
       </c>
       <c r="Y116" s="37"/>
       <c r="Z116" s="35" t="s">
@@ -12693,7 +14396,7 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="35" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B117" s="35" t="s">
         <v>793</v>
@@ -12718,11 +14421,11 @@
       <c r="T117" s="35"/>
       <c r="U117" s="35"/>
       <c r="V117" s="35"/>
-      <c r="W117" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="X117" s="35" t="s">
-        <v>333</v>
+      <c r="W117" s="35">
+        <v>1</v>
+      </c>
+      <c r="X117" s="35">
+        <v>0</v>
       </c>
       <c r="Y117" s="37"/>
       <c r="Z117" s="35" t="s">
@@ -12731,7 +14434,7 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="35" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B118" s="35" t="s">
         <v>793</v>
@@ -12757,9 +14460,11 @@
       <c r="U118" s="35"/>
       <c r="V118" s="35"/>
       <c r="W118" s="35">
-        <v>10</v>
-      </c>
-      <c r="X118" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="X118" s="35">
+        <v>1</v>
+      </c>
       <c r="Y118" s="37"/>
       <c r="Z118" s="35" t="s">
         <v>793</v>
@@ -12767,7 +14472,7 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="35" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B119" s="35" t="s">
         <v>793</v>
@@ -12792,7 +14497,9 @@
       <c r="T119" s="35"/>
       <c r="U119" s="35"/>
       <c r="V119" s="35"/>
-      <c r="W119" s="35"/>
+      <c r="W119" s="35">
+        <v>5000</v>
+      </c>
       <c r="X119" s="35">
         <v>0</v>
       </c>
@@ -12803,7 +14510,7 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="35" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B120" s="35" t="s">
         <v>793</v>
@@ -12828,8 +14535,12 @@
       <c r="T120" s="35"/>
       <c r="U120" s="35"/>
       <c r="V120" s="35"/>
-      <c r="W120" s="35"/>
-      <c r="X120" s="35"/>
+      <c r="W120" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="X120" s="35">
+        <v>0</v>
+      </c>
       <c r="Y120" s="37"/>
       <c r="Z120" s="35" t="s">
         <v>793</v>
@@ -12837,7 +14548,7 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="35" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B121" s="35" t="s">
         <v>793</v>
@@ -12863,20 +14574,462 @@
       <c r="U121" s="35"/>
       <c r="V121" s="35"/>
       <c r="W121" s="35">
-        <v>100000</v>
-      </c>
-      <c r="X121" s="35">
-        <v>100000</v>
-      </c>
-      <c r="Y121" s="37" t="s">
-        <v>788</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="X121" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y121" s="37"/>
       <c r="Z121" s="35" t="s">
         <v>793</v>
       </c>
     </row>
+    <row r="122" spans="1:26">
+      <c r="A122" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="B122" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="35"/>
+      <c r="M122" s="35"/>
+      <c r="N122" s="35"/>
+      <c r="O122" s="35"/>
+      <c r="P122" s="35"/>
+      <c r="Q122" s="35"/>
+      <c r="R122" s="35"/>
+      <c r="S122" s="35"/>
+      <c r="T122" s="35"/>
+      <c r="U122" s="35"/>
+      <c r="V122" s="35"/>
+      <c r="W122" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="X122" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y122" s="37"/>
+      <c r="Z122" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26">
+      <c r="A123" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="35"/>
+      <c r="Q123" s="35"/>
+      <c r="R123" s="35"/>
+      <c r="S123" s="35"/>
+      <c r="T123" s="35"/>
+      <c r="U123" s="35"/>
+      <c r="V123" s="35"/>
+      <c r="W123" s="35">
+        <v>10</v>
+      </c>
+      <c r="X123" s="35"/>
+      <c r="Y123" s="37"/>
+      <c r="Z123" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26">
+      <c r="A124" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="B124" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="36"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="35"/>
+      <c r="O124" s="35"/>
+      <c r="P124" s="35"/>
+      <c r="Q124" s="35"/>
+      <c r="R124" s="35"/>
+      <c r="S124" s="35"/>
+      <c r="T124" s="35"/>
+      <c r="U124" s="35"/>
+      <c r="V124" s="35"/>
+      <c r="W124" s="35"/>
+      <c r="X124" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="37"/>
+      <c r="Z124" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26">
+      <c r="A125" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="36"/>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
+      <c r="N125" s="35"/>
+      <c r="O125" s="35"/>
+      <c r="P125" s="35"/>
+      <c r="Q125" s="35"/>
+      <c r="R125" s="35"/>
+      <c r="S125" s="35"/>
+      <c r="T125" s="35"/>
+      <c r="U125" s="35"/>
+      <c r="V125" s="35"/>
+      <c r="W125" s="35"/>
+      <c r="X125" s="35"/>
+      <c r="Y125" s="37"/>
+      <c r="Z125" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26">
+      <c r="A126" s="35" t="s">
+        <v>824</v>
+      </c>
+      <c r="B126" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
+      <c r="N126" s="35"/>
+      <c r="O126" s="35"/>
+      <c r="P126" s="35"/>
+      <c r="Q126" s="35"/>
+      <c r="R126" s="35"/>
+      <c r="S126" s="35"/>
+      <c r="T126" s="35"/>
+      <c r="U126" s="35"/>
+      <c r="V126" s="35"/>
+      <c r="W126" s="35">
+        <v>100000</v>
+      </c>
+      <c r="X126" s="35">
+        <v>100000</v>
+      </c>
+      <c r="Y126" s="37" t="s">
+        <v>788</v>
+      </c>
+      <c r="Z126" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26">
+      <c r="A127" s="35" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C127" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D127" s="35">
+        <f t="shared" ref="D127:J127" si="68">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E127" s="35">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+      <c r="F127" s="35">
+        <f t="shared" si="68"/>
+        <v>2010</v>
+      </c>
+      <c r="G127" s="35">
+        <f t="shared" si="68"/>
+        <v>2022</v>
+      </c>
+      <c r="H127" s="35">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+      <c r="I127" s="35">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+      <c r="J127" s="35">
+        <f t="shared" si="68"/>
+        <v>1200</v>
+      </c>
+      <c r="K127" s="36" t="s">
+        <v>847</v>
+      </c>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
+      <c r="N127" s="35"/>
+      <c r="O127" s="35"/>
+      <c r="P127" s="35"/>
+      <c r="Q127" s="35"/>
+      <c r="R127" s="35"/>
+      <c r="S127" s="35"/>
+      <c r="T127" s="35"/>
+      <c r="U127" s="35"/>
+      <c r="V127" s="35">
+        <f>VALUE(V2)</f>
+        <v>1444</v>
+      </c>
+      <c r="W127" s="35"/>
+      <c r="X127" s="35"/>
+      <c r="Y127" s="37" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Z127" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26">
+      <c r="A128" s="35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B128" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C128" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D128" s="35">
+        <f t="shared" ref="D128:J128" si="69">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E128" s="35">
+        <f t="shared" si="69"/>
+        <v>10</v>
+      </c>
+      <c r="F128" s="35">
+        <f t="shared" si="69"/>
+        <v>2010</v>
+      </c>
+      <c r="G128" s="35">
+        <f t="shared" si="69"/>
+        <v>2022</v>
+      </c>
+      <c r="H128" s="35">
+        <f t="shared" si="69"/>
+        <v>9</v>
+      </c>
+      <c r="I128" s="35">
+        <f t="shared" si="69"/>
+        <v>11</v>
+      </c>
+      <c r="J128" s="35">
+        <f t="shared" si="69"/>
+        <v>1200</v>
+      </c>
+      <c r="K128" s="36" t="s">
+        <v>847</v>
+      </c>
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
+      <c r="N128" s="35"/>
+      <c r="O128" s="35"/>
+      <c r="P128" s="35"/>
+      <c r="Q128" s="35"/>
+      <c r="R128" s="35"/>
+      <c r="S128" s="35"/>
+      <c r="T128" s="35"/>
+      <c r="U128" s="35"/>
+      <c r="V128" s="35">
+        <f>VALUE(V2)</f>
+        <v>1444</v>
+      </c>
+      <c r="W128" s="35"/>
+      <c r="X128" s="35"/>
+      <c r="Y128" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Z128" s="35" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26">
+      <c r="A129" s="35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B129" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C129" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D129" s="35">
+        <f t="shared" ref="D129:J129" si="70">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E129" s="35">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="F129" s="35">
+        <f t="shared" si="70"/>
+        <v>2010</v>
+      </c>
+      <c r="G129" s="35">
+        <f t="shared" si="70"/>
+        <v>2022</v>
+      </c>
+      <c r="H129" s="35">
+        <f t="shared" si="70"/>
+        <v>9</v>
+      </c>
+      <c r="I129" s="35">
+        <f t="shared" si="70"/>
+        <v>11</v>
+      </c>
+      <c r="J129" s="35">
+        <f t="shared" si="70"/>
+        <v>1200</v>
+      </c>
+      <c r="K129" s="36" t="s">
+        <v>847</v>
+      </c>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
+      <c r="N129" s="35"/>
+      <c r="O129" s="35"/>
+      <c r="P129" s="35"/>
+      <c r="Q129" s="35"/>
+      <c r="R129" s="35"/>
+      <c r="S129" s="35"/>
+      <c r="T129" s="35"/>
+      <c r="U129" s="35"/>
+      <c r="V129" s="35">
+        <f>VALUE(V2)</f>
+        <v>1444</v>
+      </c>
+      <c r="W129" s="35"/>
+      <c r="X129" s="35"/>
+      <c r="Y129" s="37" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Z129" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26">
+      <c r="A130" s="35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B130" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="C130" s="35">
+        <f>VALUE(C2)</f>
+        <v>234</v>
+      </c>
+      <c r="D130" s="35">
+        <f t="shared" ref="D130:J130" si="71">VALUE(D2)</f>
+        <v>335</v>
+      </c>
+      <c r="E130" s="35">
+        <f t="shared" si="71"/>
+        <v>10</v>
+      </c>
+      <c r="F130" s="35">
+        <f t="shared" si="71"/>
+        <v>2010</v>
+      </c>
+      <c r="G130" s="35">
+        <f t="shared" si="71"/>
+        <v>2022</v>
+      </c>
+      <c r="H130" s="35">
+        <f t="shared" si="71"/>
+        <v>9</v>
+      </c>
+      <c r="I130" s="35">
+        <f t="shared" si="71"/>
+        <v>11</v>
+      </c>
+      <c r="J130" s="35">
+        <f t="shared" si="71"/>
+        <v>1200</v>
+      </c>
+      <c r="K130" s="36" t="s">
+        <v>847</v>
+      </c>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="35"/>
+      <c r="O130" s="35"/>
+      <c r="P130" s="35"/>
+      <c r="Q130" s="35"/>
+      <c r="R130" s="35"/>
+      <c r="S130" s="35"/>
+      <c r="T130" s="35"/>
+      <c r="U130" s="35"/>
+      <c r="V130" s="35">
+        <f>VALUE(V2)</f>
+        <v>1444</v>
+      </c>
+      <c r="W130" s="35"/>
+      <c r="X130" s="35"/>
+      <c r="Y130" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Z130" s="35" t="s">
+        <v>840</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B120" xr:uid="{72CA91A3-71A2-40E1-9E38-A4CCFCF2C64C}"/>
+  <autoFilter ref="B1:B125" xr:uid="{72CA91A3-71A2-40E1-9E38-A4CCFCF2C64C}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12886,13 +15039,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039B7050-70C2-46DB-A433-11E1B2015CAC}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12938,7 +15091,7 @@
         <v>734</v>
       </c>
       <c r="C2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -12955,7 +15108,7 @@
         <v>734</v>
       </c>
       <c r="C3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -12972,7 +15125,7 @@
         <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D4">
         <v>97</v>
@@ -12989,7 +15142,7 @@
         <v>734</v>
       </c>
       <c r="C6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D6">
         <v>-10</v>
@@ -13006,7 +15159,7 @@
         <v>734</v>
       </c>
       <c r="C7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -13023,7 +15176,7 @@
         <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D8">
         <v>105</v>
@@ -13057,7 +15210,7 @@
         <v>734</v>
       </c>
       <c r="C12" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D12" t="s">
         <v>749</v>
@@ -13091,7 +15244,7 @@
         <v>734</v>
       </c>
       <c r="C15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D15" t="s">
         <v>750</v>
@@ -13119,10 +15272,10 @@
         <v>734</v>
       </c>
       <c r="C18" t="s">
+        <v>971</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>973</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13133,10 +15286,10 @@
         <v>734</v>
       </c>
       <c r="C19" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -13471,7 +15624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181229FD-2F97-42A8-8C1C-583530FCF353}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -13578,7 +15731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA91A3-71A2-40E1-9E38-A4CCFCF2C64C}">
   <dimension ref="A1:Q302"/>
   <sheetViews>
@@ -13682,7 +15835,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13717,7 +15870,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13752,7 +15905,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -16765,7 +18918,7 @@
         <v>296</v>
       </c>
       <c r="N134" s="27" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -16803,7 +18956,7 @@
         <v>161</v>
       </c>
       <c r="N135" s="27" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -17927,7 +20080,7 @@
         <v>296</v>
       </c>
       <c r="N170" s="27" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -17956,7 +20109,7 @@
         <v>152</v>
       </c>
       <c r="N171" s="27" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -18530,7 +20683,7 @@
         <v>121</v>
       </c>
       <c r="N196" s="27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -18562,7 +20715,7 @@
         <v>122</v>
       </c>
       <c r="N197" s="27" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -19256,7 +21409,7 @@
         <v>309</v>
       </c>
       <c r="N224" s="27" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -19282,7 +21435,7 @@
         <v>310</v>
       </c>
       <c r="N225" s="27" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -19674,7 +21827,7 @@
         <v>283</v>
       </c>
       <c r="N244" s="27" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -19700,7 +21853,7 @@
         <v>284</v>
       </c>
       <c r="N245" s="27" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -20835,7 +22988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDCA633-397E-459D-967A-3297919D927B}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -21093,7 +23246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9789A4-A573-451B-B941-51244D73909C}">
   <dimension ref="A1:F18"/>
   <sheetViews>

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1113">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>
@@ -3385,6 +3385,18 @@
   </si>
   <si>
     <t>{"title":"VALIDATION_ERROR","status":422,"detail":"Operational setting specification not valid","errors":[{"field":"Operational setting specification.Creation start date","title":null,"code":null,"detail":"</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>1460</t>
   </si>
 </sst>
 </file>
@@ -6154,7 +6166,7 @@
       <c r="T2" s="35"/>
       <c r="U2" s="35"/>
       <c r="V2" s="35" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="W2" s="35"/>
       <c r="X2" s="35"/>
@@ -6230,7 +6242,7 @@
         <v>121</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
@@ -6295,7 +6307,7 @@
       <c r="U4" s="35"/>
       <c r="V4" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="35"/>
@@ -6380,7 +6392,7 @@
       </c>
       <c r="V5" s="35" t="n">
         <f>VALUE(V3)</f>
-        <v>1445.0</v>
+        <v>1460.0</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="35"/>
@@ -10175,7 +10187,7 @@
       </c>
       <c r="V58" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
@@ -10260,7 +10272,7 @@
       </c>
       <c r="V59" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W59" s="35"/>
       <c r="X59" s="35"/>
@@ -10345,7 +10357,7 @@
       </c>
       <c r="V60" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W60" s="35"/>
       <c r="X60" s="35"/>
@@ -10430,7 +10442,7 @@
       </c>
       <c r="V61" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
@@ -10515,7 +10527,7 @@
       </c>
       <c r="V62" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
@@ -10580,7 +10592,7 @@
       <c r="U63" s="35"/>
       <c r="V63" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
@@ -10665,7 +10677,7 @@
       </c>
       <c r="V64" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
@@ -10730,7 +10742,7 @@
       <c r="U65" s="35"/>
       <c r="V65" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W65" s="35"/>
       <c r="X65" s="35"/>
@@ -10815,7 +10827,7 @@
       </c>
       <c r="V66" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
@@ -10880,7 +10892,7 @@
       <c r="U67" s="35"/>
       <c r="V67" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
@@ -10965,7 +10977,7 @@
       </c>
       <c r="V68" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
@@ -11030,7 +11042,7 @@
       <c r="U69" s="35"/>
       <c r="V69" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
@@ -11115,7 +11127,7 @@
       </c>
       <c r="V70" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
@@ -11180,7 +11192,7 @@
       <c r="U71" s="35"/>
       <c r="V71" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
@@ -11265,7 +11277,7 @@
       </c>
       <c r="V72" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
@@ -11330,7 +11342,7 @@
       <c r="U73" s="35"/>
       <c r="V73" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
@@ -11415,7 +11427,7 @@
       </c>
       <c r="V74" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
@@ -11480,7 +11492,7 @@
       <c r="U75" s="35"/>
       <c r="V75" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
@@ -11565,7 +11577,7 @@
       </c>
       <c r="V76" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
@@ -11630,7 +11642,7 @@
       <c r="U77" s="35"/>
       <c r="V77" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W77" s="35"/>
       <c r="X77" s="35"/>
@@ -11715,7 +11727,7 @@
       </c>
       <c r="V78" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W78" s="35"/>
       <c r="X78" s="35"/>
@@ -11780,7 +11792,7 @@
       <c r="U79" s="35"/>
       <c r="V79" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W79" s="35"/>
       <c r="X79" s="35"/>
@@ -11865,7 +11877,7 @@
       </c>
       <c r="V80" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W80" s="35"/>
       <c r="X80" s="35"/>
@@ -11930,7 +11942,7 @@
       <c r="U81" s="35"/>
       <c r="V81" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W81" s="35"/>
       <c r="X81" s="35"/>
@@ -12015,7 +12027,7 @@
       </c>
       <c r="V82" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W82" s="35"/>
       <c r="X82" s="35"/>
@@ -12080,7 +12092,7 @@
       <c r="U83" s="35"/>
       <c r="V83" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W83" s="35"/>
       <c r="X83" s="35"/>
@@ -12165,7 +12177,7 @@
       </c>
       <c r="V84" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W84" s="35"/>
       <c r="X84" s="35"/>
@@ -12230,7 +12242,7 @@
       <c r="U85" s="35"/>
       <c r="V85" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W85" s="35"/>
       <c r="X85" s="35"/>
@@ -12314,7 +12326,7 @@
       </c>
       <c r="V86" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W86" s="35"/>
       <c r="X86" s="35"/>
@@ -12377,7 +12389,7 @@
       <c r="U87" s="35"/>
       <c r="V87" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W87" s="35"/>
       <c r="X87" s="35"/>
@@ -12461,7 +12473,7 @@
       </c>
       <c r="V88" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W88" s="35"/>
       <c r="X88" s="35"/>
@@ -12524,7 +12536,7 @@
       <c r="U89" s="35"/>
       <c r="V89" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W89" s="35"/>
       <c r="X89" s="35"/>
@@ -12588,7 +12600,7 @@
       <c r="U90" s="35"/>
       <c r="V90" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W90" s="35"/>
       <c r="X90" s="35"/>
@@ -12673,7 +12685,7 @@
       </c>
       <c r="V91" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W91" s="35"/>
       <c r="X91" s="35"/>
@@ -12737,7 +12749,7 @@
       <c r="U92" s="35"/>
       <c r="V92" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W92" s="35"/>
       <c r="X92" s="35"/>
@@ -12822,7 +12834,7 @@
       </c>
       <c r="V93" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W93" s="35"/>
       <c r="X93" s="35"/>
@@ -12886,7 +12898,7 @@
       <c r="U94" s="35"/>
       <c r="V94" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W94" s="35"/>
       <c r="X94" s="35"/>
@@ -12971,7 +12983,7 @@
       </c>
       <c r="V95" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W95" s="35"/>
       <c r="X95" s="35"/>
@@ -13035,7 +13047,7 @@
       <c r="U96" s="35"/>
       <c r="V96" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W96" s="35"/>
       <c r="X96" s="35"/>
@@ -13120,7 +13132,7 @@
       </c>
       <c r="V97" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W97" s="35"/>
       <c r="X97" s="35"/>
@@ -13184,7 +13196,7 @@
       <c r="U98" s="35"/>
       <c r="V98" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W98" s="35"/>
       <c r="X98" s="35"/>
@@ -13269,7 +13281,7 @@
       </c>
       <c r="V99" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W99" s="35"/>
       <c r="X99" s="35"/>
@@ -13333,7 +13345,7 @@
       <c r="U100" s="35"/>
       <c r="V100" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W100" s="35"/>
       <c r="X100" s="35"/>
@@ -13418,7 +13430,7 @@
       </c>
       <c r="V101" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W101" s="35"/>
       <c r="X101" s="35"/>
@@ -13482,7 +13494,7 @@
       <c r="U102" s="35"/>
       <c r="V102" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W102" s="35"/>
       <c r="X102" s="35"/>
@@ -13567,7 +13579,7 @@
       </c>
       <c r="V103" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W103" s="35"/>
       <c r="X103" s="35"/>
@@ -13631,7 +13643,7 @@
       <c r="U104" s="35"/>
       <c r="V104" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W104" s="35"/>
       <c r="X104" s="35"/>
@@ -13696,7 +13708,7 @@
       <c r="U105" s="35"/>
       <c r="V105" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W105" s="35"/>
       <c r="X105" s="35"/>
@@ -13761,7 +13773,7 @@
       <c r="U106" s="35"/>
       <c r="V106" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W106" s="35"/>
       <c r="X106" s="35"/>
@@ -13826,7 +13838,7 @@
       <c r="U107" s="35"/>
       <c r="V107" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W107" s="35"/>
       <c r="X107" s="35"/>
@@ -13891,7 +13903,7 @@
       <c r="U108" s="35"/>
       <c r="V108" s="35" t="n">
         <f>VALUE(V2+100)</f>
-        <v>1544.0</v>
+        <v>1559.0</v>
       </c>
       <c r="W108" s="35"/>
       <c r="X108" s="35"/>
@@ -14021,13 +14033,13 @@
       <c r="U110" s="35"/>
       <c r="V110" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W110" s="35"/>
       <c r="X110" s="35"/>
       <c r="Y110" s="38" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="Z110" s="35" t="s">
         <v>793</v>
@@ -14087,13 +14099,13 @@
       <c r="U111" s="35"/>
       <c r="V111" s="35" t="n">
         <f>VALUE(V3)</f>
-        <v>1445.0</v>
+        <v>1460.0</v>
       </c>
       <c r="W111" s="35"/>
       <c r="X111" s="35"/>
       <c r="Y111" s="38" t="n">
         <f>VALUE(V3)</f>
-        <v>1445.0</v>
+        <v>1460.0</v>
       </c>
       <c r="Z111" s="35" t="s">
         <v>840</v>
@@ -14153,7 +14165,7 @@
       <c r="U112" s="35"/>
       <c r="V112" s="35" t="n">
         <f>VALUE(V2+100)</f>
-        <v>1544.0</v>
+        <v>1559.0</v>
       </c>
       <c r="W112" s="35"/>
       <c r="X112" s="35"/>
@@ -14823,7 +14835,7 @@
       <c r="U127" s="35"/>
       <c r="V127" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W127" s="35"/>
       <c r="X127" s="35"/>
@@ -14888,7 +14900,7 @@
       <c r="U128" s="35"/>
       <c r="V128" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W128" s="35"/>
       <c r="X128" s="35"/>
@@ -14953,7 +14965,7 @@
       <c r="U129" s="35"/>
       <c r="V129" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W129" s="35"/>
       <c r="X129" s="35"/>
@@ -15018,7 +15030,7 @@
       <c r="U130" s="35"/>
       <c r="V130" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1444.0</v>
+        <v>1459.0</v>
       </c>
       <c r="W130" s="35"/>
       <c r="X130" s="35"/>

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="1113">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>

--- a/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
+++ b/src/test/resources/testDataFiles/SteeringCompanyAPI_TestData/SteeringCompanyAPI_TestData.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="1118">
   <si>
     <t>KEYCLOAK_HOST</t>
   </si>
@@ -3397,6 +3397,21 @@
   </si>
   <si>
     <t>1460</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>"creationPeriodId":237</t>
+  </si>
+  <si>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>1540</t>
   </si>
 </sst>
 </file>
@@ -6129,10 +6144,10 @@
         <v>793</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>1085</v>
+        <v>1113</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>1086</v>
+        <v>1114</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>1087</v>
@@ -6166,12 +6181,12 @@
       <c r="T2" s="35"/>
       <c r="U2" s="35"/>
       <c r="V2" s="35" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="W2" s="35"/>
       <c r="X2" s="35"/>
       <c r="Y2" s="37" t="s">
-        <v>1089</v>
+        <v>1115</v>
       </c>
       <c r="Z2" s="35" t="s">
         <v>793</v>
@@ -6185,10 +6200,10 @@
         <v>840</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>1085</v>
+        <v>1113</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>1086</v>
+        <v>1114</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>1087</v>
@@ -6242,12 +6257,12 @@
         <v>121</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
       <c r="Y3" s="37" t="s">
-        <v>1089</v>
+        <v>1115</v>
       </c>
       <c r="Z3" s="35" t="s">
         <v>840</v>
@@ -6262,11 +6277,11 @@
       </c>
       <c r="C4" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D4" s="35" t="n">
         <f t="shared" ref="D4:J4" si="0">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E4" s="35" t="n">
         <f t="shared" si="0"/>
@@ -6307,7 +6322,7 @@
       <c r="U4" s="35"/>
       <c r="V4" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="35"/>
@@ -6327,11 +6342,11 @@
       </c>
       <c r="C5" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D5" s="35" t="n">
         <f t="shared" ref="D5:J5" si="1">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E5" s="35" t="n">
         <f t="shared" si="1"/>
@@ -6392,7 +6407,7 @@
       </c>
       <c r="V5" s="35" t="n">
         <f>VALUE(V3)</f>
-        <v>1460.0</v>
+        <v>1540.0</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="35"/>
@@ -6412,11 +6427,11 @@
       </c>
       <c r="C6" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D6" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E6" s="35" t="n">
         <f>VALUE(E2+1)</f>
@@ -6474,11 +6489,11 @@
       </c>
       <c r="C7" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D7" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E7" s="35" t="n">
         <f>VALUE(E2-E2)</f>
@@ -6556,11 +6571,11 @@
       </c>
       <c r="C8" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D8" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E8" s="35" t="n">
         <f>VALUE(E2-E2-1)</f>
@@ -6618,11 +6633,11 @@
       </c>
       <c r="C9" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D9" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E9" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -6700,11 +6715,11 @@
       </c>
       <c r="C10" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D10" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E10" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -6762,11 +6777,11 @@
       </c>
       <c r="C11" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D11" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E11" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -6844,11 +6859,11 @@
       </c>
       <c r="C12" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D12" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E12" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -6906,11 +6921,11 @@
       </c>
       <c r="C13" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D13" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E13" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -6988,11 +7003,11 @@
       </c>
       <c r="C14" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D14" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E14" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -7050,11 +7065,11 @@
       </c>
       <c r="C15" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D15" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E15" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -7132,11 +7147,11 @@
       </c>
       <c r="C16" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D16" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E16" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -7194,11 +7209,11 @@
       </c>
       <c r="C17" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D17" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E17" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -7276,11 +7291,11 @@
       </c>
       <c r="C18" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D18" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E18" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -7338,11 +7353,11 @@
       </c>
       <c r="C19" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D19" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E19" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -7420,11 +7435,11 @@
       </c>
       <c r="C20" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D20" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E20" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -7482,11 +7497,11 @@
       </c>
       <c r="C21" s="35" t="n">
         <f t="shared" ref="C21:H21" si="2">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D21" s="35" t="n">
         <f t="shared" si="2"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E21" s="35" t="n">
         <f t="shared" si="2"/>
@@ -7564,11 +7579,11 @@
       </c>
       <c r="C22" s="35" t="n">
         <f t="shared" ref="C22:H22" si="3">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D22" s="35" t="n">
         <f t="shared" si="3"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E22" s="35" t="n">
         <f t="shared" si="3"/>
@@ -7626,11 +7641,11 @@
       </c>
       <c r="C23" s="35" t="n">
         <f t="shared" ref="C23:H23" si="4">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D23" s="35" t="n">
         <f t="shared" si="4"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E23" s="35" t="n">
         <f t="shared" si="4"/>
@@ -7708,11 +7723,11 @@
       </c>
       <c r="C24" s="35" t="n">
         <f t="shared" ref="C24:H24" si="5">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D24" s="35" t="n">
         <f t="shared" si="5"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E24" s="35" t="n">
         <f t="shared" si="5"/>
@@ -7770,11 +7785,11 @@
       </c>
       <c r="C25" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D25" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E25" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -7852,11 +7867,11 @@
       </c>
       <c r="C26" s="35" t="n">
         <f t="shared" ref="C26:I26" si="6">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D26" s="35" t="n">
         <f t="shared" si="6"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E26" s="35" t="n">
         <f t="shared" si="6"/>
@@ -7914,11 +7929,11 @@
       </c>
       <c r="C27" s="35" t="n">
         <f t="shared" ref="C27:I27" si="7">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D27" s="35" t="n">
         <f t="shared" si="7"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E27" s="35" t="n">
         <f t="shared" si="7"/>
@@ -7996,11 +8011,11 @@
       </c>
       <c r="C28" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D28" s="35" t="n">
         <f t="shared" ref="D28:I28" si="8">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E28" s="35" t="n">
         <f t="shared" si="8"/>
@@ -8058,11 +8073,11 @@
       </c>
       <c r="C29" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D29" s="35" t="n">
         <f t="shared" ref="D29:J29" si="9">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E29" s="35" t="n">
         <f t="shared" si="9"/>
@@ -8139,11 +8154,11 @@
       </c>
       <c r="C30" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D30" s="35" t="n">
         <f t="shared" ref="D30:J30" si="10">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E30" s="35" t="n">
         <f t="shared" si="10"/>
@@ -8199,11 +8214,11 @@
       </c>
       <c r="C31" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D31" s="35" t="n">
         <f t="shared" ref="D31:J31" si="11">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E31" s="35" t="n">
         <f t="shared" si="11"/>
@@ -8280,11 +8295,11 @@
       </c>
       <c r="C32" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D32" s="35" t="n">
         <f t="shared" ref="D32:J32" si="12">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E32" s="35" t="n">
         <f t="shared" si="12"/>
@@ -8343,7 +8358,7 @@
       </c>
       <c r="D33" s="35" t="n">
         <f t="shared" ref="D33:J33" si="13">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E33" s="35" t="n">
         <f t="shared" si="13"/>
@@ -8405,7 +8420,7 @@
       </c>
       <c r="D34" s="35" t="n">
         <f t="shared" ref="D34:J34" si="14">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E34" s="35" t="n">
         <f t="shared" si="14"/>
@@ -8483,7 +8498,7 @@
       </c>
       <c r="C35" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>923</v>
@@ -8544,7 +8559,7 @@
       </c>
       <c r="C36" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D36" s="35" t="n">
         <f>VALUE(D2)+2.22222222222222E+32</f>
@@ -8626,11 +8641,11 @@
       </c>
       <c r="C37" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D37" s="35" t="n">
         <f t="shared" ref="D37:J37" si="17">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>923</v>
@@ -8687,11 +8702,11 @@
       </c>
       <c r="C38" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D38" s="35" t="n">
         <f t="shared" ref="D38:J38" si="18">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E38" s="35" t="n">
         <f>VALUE(E2)+123456789123456000</f>
@@ -8769,11 +8784,11 @@
       </c>
       <c r="C39" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D39" s="35" t="n">
         <f t="shared" ref="D39:J39" si="19">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E39" s="35" t="n">
         <f t="shared" si="19"/>
@@ -8830,11 +8845,11 @@
       </c>
       <c r="C40" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D40" s="35" t="n">
         <f t="shared" ref="D40:J40" si="20">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E40" s="35" t="n">
         <f t="shared" si="20"/>
@@ -8912,11 +8927,11 @@
       </c>
       <c r="C41" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D41" s="35" t="n">
         <f t="shared" ref="D41:J41" si="21">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E41" s="35" t="n">
         <f t="shared" si="21"/>
@@ -8973,11 +8988,11 @@
       </c>
       <c r="C42" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D42" s="35" t="n">
         <f t="shared" ref="D42:J42" si="22">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E42" s="35" t="n">
         <f t="shared" si="22"/>
@@ -9055,11 +9070,11 @@
       </c>
       <c r="C43" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D43" s="35" t="n">
         <f t="shared" ref="D43:J43" si="23">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E43" s="35" t="n">
         <f t="shared" si="23"/>
@@ -9116,11 +9131,11 @@
       </c>
       <c r="C44" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D44" s="35" t="n">
         <f t="shared" ref="D44:J44" si="24">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E44" s="35" t="n">
         <f t="shared" si="24"/>
@@ -9198,11 +9213,11 @@
       </c>
       <c r="C45" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D45" s="35" t="n">
         <f t="shared" ref="D45:J45" si="25">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E45" s="35" t="n">
         <f t="shared" si="25"/>
@@ -9259,11 +9274,11 @@
       </c>
       <c r="C46" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D46" s="35" t="n">
         <f t="shared" ref="D46:J46" si="26">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E46" s="35" t="n">
         <f t="shared" si="26"/>
@@ -9341,11 +9356,11 @@
       </c>
       <c r="C47" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D47" s="35" t="n">
         <f t="shared" ref="D47:I47" si="27">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E47" s="35" t="n">
         <f t="shared" si="27"/>
@@ -9402,11 +9417,11 @@
       </c>
       <c r="C48" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D48" s="35" t="n">
         <f t="shared" ref="D48:J48" si="28">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E48" s="35" t="n">
         <f t="shared" si="28"/>
@@ -9464,11 +9479,11 @@
       </c>
       <c r="C49" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D49" s="35" t="n">
         <f t="shared" ref="D49:J49" si="29">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E49" s="35" t="n">
         <f t="shared" si="29"/>
@@ -9546,11 +9561,11 @@
       </c>
       <c r="C50" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D50" s="35" t="n">
         <f t="shared" ref="D50:J50" si="30">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E50" s="35" t="n">
         <f t="shared" si="30"/>
@@ -9628,11 +9643,11 @@
       </c>
       <c r="C51" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D51" s="35" t="n">
         <f t="shared" ref="D51:J51" si="31">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E51" s="35" t="n">
         <f t="shared" si="31"/>
@@ -9710,11 +9725,11 @@
       </c>
       <c r="C52" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D52" s="35" t="n">
         <f t="shared" ref="D52:J52" si="32">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E52" s="35" t="n">
         <f t="shared" si="32"/>
@@ -9792,11 +9807,11 @@
       </c>
       <c r="C53" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D53" s="35" t="n">
         <f t="shared" ref="D53:J53" si="33">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E53" s="35" t="n">
         <f t="shared" si="33"/>
@@ -9878,7 +9893,7 @@
       </c>
       <c r="D54" s="35" t="n">
         <f t="shared" ref="D54:J54" si="34">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E54" s="35" t="n">
         <f t="shared" si="34"/>
@@ -9936,11 +9951,11 @@
       </c>
       <c r="C55" s="35" t="n">
         <f>VALUE(C2+C2+10)</f>
-        <v>478.0</v>
+        <v>484.0</v>
       </c>
       <c r="D55" s="35" t="n">
         <f t="shared" ref="D55:J55" si="35">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E55" s="35" t="n">
         <f t="shared" si="35"/>
@@ -9998,7 +10013,7 @@
       </c>
       <c r="C56" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D56" s="35" t="n">
         <f>VALUE(D2-D2-1)</f>
@@ -10060,11 +10075,11 @@
       </c>
       <c r="C57" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D57" s="35" t="n">
         <f>VALUE(D2+D2+10)</f>
-        <v>680.0</v>
+        <v>696.0</v>
       </c>
       <c r="E57" s="35" t="n">
         <f t="shared" ref="E57:J57" si="37">VALUE(E2)</f>
@@ -10122,11 +10137,11 @@
       </c>
       <c r="C58" s="35" t="n">
         <f t="shared" ref="C58:J58" si="38">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D58" s="35" t="n">
         <f t="shared" si="38"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E58" s="35" t="n">
         <f t="shared" si="38"/>
@@ -10187,7 +10202,7 @@
       </c>
       <c r="V58" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
@@ -10207,11 +10222,11 @@
       </c>
       <c r="C59" s="35" t="n">
         <f t="shared" ref="C59:J59" si="39">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D59" s="35" t="n">
         <f t="shared" si="39"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E59" s="35" t="n">
         <f t="shared" si="39"/>
@@ -10272,7 +10287,7 @@
       </c>
       <c r="V59" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W59" s="35"/>
       <c r="X59" s="35"/>
@@ -10292,11 +10307,11 @@
       </c>
       <c r="C60" s="35" t="n">
         <f t="shared" ref="C60:J60" si="40">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D60" s="35" t="n">
         <f t="shared" si="40"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E60" s="35" t="n">
         <f t="shared" si="40"/>
@@ -10357,7 +10372,7 @@
       </c>
       <c r="V60" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W60" s="35"/>
       <c r="X60" s="35"/>
@@ -10377,11 +10392,11 @@
       </c>
       <c r="C61" s="35" t="n">
         <f t="shared" ref="C61:J61" si="41">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D61" s="35" t="n">
         <f t="shared" si="41"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E61" s="35" t="n">
         <f t="shared" si="41"/>
@@ -10442,7 +10457,7 @@
       </c>
       <c r="V61" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
@@ -10462,11 +10477,11 @@
       </c>
       <c r="C62" s="35" t="n">
         <f t="shared" ref="C62:J62" si="42">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D62" s="35" t="n">
         <f t="shared" si="42"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E62" s="35" t="n">
         <f t="shared" si="42"/>
@@ -10527,7 +10542,7 @@
       </c>
       <c r="V62" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
@@ -10547,11 +10562,11 @@
       </c>
       <c r="C63" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D63" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E63" s="35" t="n">
         <f>VALUE(E2+1)</f>
@@ -10592,7 +10607,7 @@
       <c r="U63" s="35"/>
       <c r="V63" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
@@ -10612,11 +10627,11 @@
       </c>
       <c r="C64" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D64" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E64" s="35" t="n">
         <f>VALUE(E2-E2)</f>
@@ -10677,7 +10692,7 @@
       </c>
       <c r="V64" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
@@ -10697,11 +10712,11 @@
       </c>
       <c r="C65" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D65" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E65" s="35" t="n">
         <f>VALUE(E2-E2-1)</f>
@@ -10742,7 +10757,7 @@
       <c r="U65" s="35"/>
       <c r="V65" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W65" s="35"/>
       <c r="X65" s="35"/>
@@ -10762,11 +10777,11 @@
       </c>
       <c r="C66" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D66" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E66" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -10827,7 +10842,7 @@
       </c>
       <c r="V66" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
@@ -10847,11 +10862,11 @@
       </c>
       <c r="C67" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D67" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E67" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -10892,7 +10907,7 @@
       <c r="U67" s="35"/>
       <c r="V67" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
@@ -10912,11 +10927,11 @@
       </c>
       <c r="C68" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D68" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E68" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -10977,7 +10992,7 @@
       </c>
       <c r="V68" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
@@ -10997,11 +11012,11 @@
       </c>
       <c r="C69" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D69" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E69" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11042,7 +11057,7 @@
       <c r="U69" s="35"/>
       <c r="V69" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
@@ -11062,11 +11077,11 @@
       </c>
       <c r="C70" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D70" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E70" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11127,7 +11142,7 @@
       </c>
       <c r="V70" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
@@ -11147,11 +11162,11 @@
       </c>
       <c r="C71" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D71" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E71" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11192,7 +11207,7 @@
       <c r="U71" s="35"/>
       <c r="V71" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
@@ -11212,11 +11227,11 @@
       </c>
       <c r="C72" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D72" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E72" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11277,7 +11292,7 @@
       </c>
       <c r="V72" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
@@ -11297,11 +11312,11 @@
       </c>
       <c r="C73" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D73" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E73" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11342,7 +11357,7 @@
       <c r="U73" s="35"/>
       <c r="V73" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
@@ -11362,11 +11377,11 @@
       </c>
       <c r="C74" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D74" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E74" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11427,7 +11442,7 @@
       </c>
       <c r="V74" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
@@ -11447,11 +11462,11 @@
       </c>
       <c r="C75" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D75" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E75" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11492,7 +11507,7 @@
       <c r="U75" s="35"/>
       <c r="V75" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
@@ -11512,11 +11527,11 @@
       </c>
       <c r="C76" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D76" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E76" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11577,7 +11592,7 @@
       </c>
       <c r="V76" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
@@ -11597,11 +11612,11 @@
       </c>
       <c r="C77" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D77" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E77" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -11642,7 +11657,7 @@
       <c r="U77" s="35"/>
       <c r="V77" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W77" s="35"/>
       <c r="X77" s="35"/>
@@ -11662,11 +11677,11 @@
       </c>
       <c r="C78" s="35" t="n">
         <f t="shared" ref="C78:H78" si="43">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D78" s="35" t="n">
         <f t="shared" si="43"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E78" s="35" t="n">
         <f t="shared" si="43"/>
@@ -11727,7 +11742,7 @@
       </c>
       <c r="V78" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W78" s="35"/>
       <c r="X78" s="35"/>
@@ -11747,11 +11762,11 @@
       </c>
       <c r="C79" s="35" t="n">
         <f t="shared" ref="C79:H79" si="44">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D79" s="35" t="n">
         <f t="shared" si="44"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E79" s="35" t="n">
         <f t="shared" si="44"/>
@@ -11792,7 +11807,7 @@
       <c r="U79" s="35"/>
       <c r="V79" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W79" s="35"/>
       <c r="X79" s="35"/>
@@ -11812,11 +11827,11 @@
       </c>
       <c r="C80" s="35" t="n">
         <f t="shared" ref="C80:H80" si="45">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D80" s="35" t="n">
         <f t="shared" si="45"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E80" s="35" t="n">
         <f t="shared" si="45"/>
@@ -11877,7 +11892,7 @@
       </c>
       <c r="V80" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W80" s="35"/>
       <c r="X80" s="35"/>
@@ -11897,11 +11912,11 @@
       </c>
       <c r="C81" s="35" t="n">
         <f t="shared" ref="C81:H81" si="46">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D81" s="35" t="n">
         <f t="shared" si="46"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E81" s="35" t="n">
         <f t="shared" si="46"/>
@@ -11942,7 +11957,7 @@
       <c r="U81" s="35"/>
       <c r="V81" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W81" s="35"/>
       <c r="X81" s="35"/>
@@ -11962,11 +11977,11 @@
       </c>
       <c r="C82" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D82" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E82" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -12027,7 +12042,7 @@
       </c>
       <c r="V82" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W82" s="35"/>
       <c r="X82" s="35"/>
@@ -12047,11 +12062,11 @@
       </c>
       <c r="C83" s="35" t="n">
         <f t="shared" ref="C83:I83" si="47">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D83" s="35" t="n">
         <f t="shared" si="47"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E83" s="35" t="n">
         <f t="shared" si="47"/>
@@ -12092,7 +12107,7 @@
       <c r="U83" s="35"/>
       <c r="V83" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W83" s="35"/>
       <c r="X83" s="35"/>
@@ -12112,11 +12127,11 @@
       </c>
       <c r="C84" s="35" t="n">
         <f t="shared" ref="C84:I84" si="48">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D84" s="35" t="n">
         <f t="shared" si="48"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E84" s="35" t="n">
         <f t="shared" si="48"/>
@@ -12177,7 +12192,7 @@
       </c>
       <c r="V84" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W84" s="35"/>
       <c r="X84" s="35"/>
@@ -12197,11 +12212,11 @@
       </c>
       <c r="C85" s="35" t="n">
         <f t="shared" ref="C85:I85" si="49">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D85" s="35" t="n">
         <f t="shared" si="49"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E85" s="35" t="n">
         <f t="shared" si="49"/>
@@ -12242,7 +12257,7 @@
       <c r="U85" s="35"/>
       <c r="V85" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W85" s="35"/>
       <c r="X85" s="35"/>
@@ -12262,11 +12277,11 @@
       </c>
       <c r="C86" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D86" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E86" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -12326,7 +12341,7 @@
       </c>
       <c r="V86" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W86" s="35"/>
       <c r="X86" s="35"/>
@@ -12346,11 +12361,11 @@
       </c>
       <c r="C87" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D87" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E87" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -12389,7 +12404,7 @@
       <c r="U87" s="35"/>
       <c r="V87" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W87" s="35"/>
       <c r="X87" s="35"/>
@@ -12409,11 +12424,11 @@
       </c>
       <c r="C88" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D88" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E88" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -12473,7 +12488,7 @@
       </c>
       <c r="V88" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W88" s="35"/>
       <c r="X88" s="35"/>
@@ -12493,11 +12508,11 @@
       </c>
       <c r="C89" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D89" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E89" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -12536,7 +12551,7 @@
       <c r="U89" s="35"/>
       <c r="V89" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W89" s="35"/>
       <c r="X89" s="35"/>
@@ -12559,7 +12574,7 @@
       </c>
       <c r="D90" s="35" t="n">
         <f t="shared" ref="D90:J90" si="50">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E90" s="35" t="n">
         <f t="shared" si="50"/>
@@ -12600,7 +12615,7 @@
       <c r="U90" s="35"/>
       <c r="V90" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W90" s="35"/>
       <c r="X90" s="35"/>
@@ -12624,7 +12639,7 @@
       </c>
       <c r="D91" s="35" t="n">
         <f t="shared" ref="D91:J91" si="51">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E91" s="35" t="n">
         <f t="shared" si="51"/>
@@ -12685,7 +12700,7 @@
       </c>
       <c r="V91" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W91" s="35"/>
       <c r="X91" s="35"/>
@@ -12705,7 +12720,7 @@
       </c>
       <c r="C92" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D92" s="35" t="s">
         <v>923</v>
@@ -12749,7 +12764,7 @@
       <c r="U92" s="35"/>
       <c r="V92" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W92" s="35"/>
       <c r="X92" s="35"/>
@@ -12769,7 +12784,7 @@
       </c>
       <c r="C93" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D93" s="35" t="n">
         <f>VALUE(D2)+2.22222222222222E+32</f>
@@ -12834,7 +12849,7 @@
       </c>
       <c r="V93" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W93" s="35"/>
       <c r="X93" s="35"/>
@@ -12854,11 +12869,11 @@
       </c>
       <c r="C94" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D94" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E94" s="35" t="s">
         <v>923</v>
@@ -12898,7 +12913,7 @@
       <c r="U94" s="35"/>
       <c r="V94" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W94" s="35"/>
       <c r="X94" s="35"/>
@@ -12918,11 +12933,11 @@
       </c>
       <c r="C95" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D95" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E95" s="35" t="n">
         <f>VALUE(E2)+123456789123456000</f>
@@ -12983,7 +12998,7 @@
       </c>
       <c r="V95" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W95" s="35"/>
       <c r="X95" s="35"/>
@@ -13003,11 +13018,11 @@
       </c>
       <c r="C96" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D96" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E96" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -13047,7 +13062,7 @@
       <c r="U96" s="35"/>
       <c r="V96" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W96" s="35"/>
       <c r="X96" s="35"/>
@@ -13067,11 +13082,11 @@
       </c>
       <c r="C97" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D97" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E97" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -13132,7 +13147,7 @@
       </c>
       <c r="V97" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W97" s="35"/>
       <c r="X97" s="35"/>
@@ -13152,11 +13167,11 @@
       </c>
       <c r="C98" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D98" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E98" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -13196,7 +13211,7 @@
       <c r="U98" s="35"/>
       <c r="V98" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W98" s="35"/>
       <c r="X98" s="35"/>
@@ -13216,11 +13231,11 @@
       </c>
       <c r="C99" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D99" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E99" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -13281,7 +13296,7 @@
       </c>
       <c r="V99" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W99" s="35"/>
       <c r="X99" s="35"/>
@@ -13301,11 +13316,11 @@
       </c>
       <c r="C100" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D100" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E100" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -13345,7 +13360,7 @@
       <c r="U100" s="35"/>
       <c r="V100" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W100" s="35"/>
       <c r="X100" s="35"/>
@@ -13365,11 +13380,11 @@
       </c>
       <c r="C101" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D101" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E101" s="35" t="n">
         <f>VALUE(E2)</f>
@@ -13430,7 +13445,7 @@
       </c>
       <c r="V101" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W101" s="35"/>
       <c r="X101" s="35"/>
@@ -13450,11 +13465,11 @@
       </c>
       <c r="C102" s="35" t="n">
         <f t="shared" ref="C102:H102" si="54">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D102" s="35" t="n">
         <f t="shared" si="54"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E102" s="35" t="n">
         <f t="shared" si="54"/>
@@ -13494,7 +13509,7 @@
       <c r="U102" s="35"/>
       <c r="V102" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W102" s="35"/>
       <c r="X102" s="35"/>
@@ -13514,11 +13529,11 @@
       </c>
       <c r="C103" s="35" t="n">
         <f t="shared" ref="C103:H103" si="55">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D103" s="35" t="n">
         <f t="shared" si="55"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E103" s="35" t="n">
         <f t="shared" si="55"/>
@@ -13579,7 +13594,7 @@
       </c>
       <c r="V103" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W103" s="35"/>
       <c r="X103" s="35"/>
@@ -13599,11 +13614,11 @@
       </c>
       <c r="C104" s="35" t="n">
         <f t="shared" ref="C104:I104" si="56">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D104" s="35" t="n">
         <f t="shared" si="56"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E104" s="35" t="n">
         <f t="shared" si="56"/>
@@ -13643,7 +13658,7 @@
       <c r="U104" s="35"/>
       <c r="V104" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W104" s="35"/>
       <c r="X104" s="35"/>
@@ -13663,11 +13678,11 @@
       </c>
       <c r="C105" s="35" t="n">
         <f t="shared" ref="C105:J105" si="57">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D105" s="35" t="n">
         <f t="shared" si="57"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E105" s="35" t="n">
         <f t="shared" si="57"/>
@@ -13708,7 +13723,7 @@
       <c r="U105" s="35"/>
       <c r="V105" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W105" s="35"/>
       <c r="X105" s="35"/>
@@ -13732,7 +13747,7 @@
       </c>
       <c r="D106" s="35" t="n">
         <f t="shared" ref="D106:J106" si="58">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E106" s="35" t="n">
         <f t="shared" si="58"/>
@@ -13773,7 +13788,7 @@
       <c r="U106" s="35"/>
       <c r="V106" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W106" s="35"/>
       <c r="X106" s="35"/>
@@ -13793,11 +13808,11 @@
       </c>
       <c r="C107" s="35" t="n">
         <f>VALUE(C2+C2+10)</f>
-        <v>478.0</v>
+        <v>484.0</v>
       </c>
       <c r="D107" s="35" t="n">
         <f t="shared" ref="D107:J107" si="59">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E107" s="35" t="n">
         <f t="shared" si="59"/>
@@ -13838,7 +13853,7 @@
       <c r="U107" s="35"/>
       <c r="V107" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W107" s="35"/>
       <c r="X107" s="35"/>
@@ -13858,11 +13873,11 @@
       </c>
       <c r="C108" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D108" s="35" t="n">
         <f>VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E108" s="35" t="n">
         <f t="shared" ref="E108:J108" si="60">VALUE(E2)</f>
@@ -13903,7 +13918,7 @@
       <c r="U108" s="35"/>
       <c r="V108" s="35" t="n">
         <f>VALUE(V2+100)</f>
-        <v>1559.0</v>
+        <v>1639.0</v>
       </c>
       <c r="W108" s="35"/>
       <c r="X108" s="35"/>
@@ -13923,11 +13938,11 @@
       </c>
       <c r="C109" s="35" t="n">
         <f t="shared" ref="C109:J109" si="61">VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D109" s="35" t="n">
         <f t="shared" si="61"/>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E109" s="35" t="n">
         <f t="shared" si="61"/>
@@ -13988,11 +14003,11 @@
       </c>
       <c r="C110" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D110" s="35" t="n">
         <f t="shared" ref="D110:J110" si="62">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E110" s="35" t="n">
         <f t="shared" si="62"/>
@@ -14033,13 +14048,13 @@
       <c r="U110" s="35"/>
       <c r="V110" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W110" s="35"/>
       <c r="X110" s="35"/>
       <c r="Y110" s="38" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="Z110" s="35" t="s">
         <v>793</v>
@@ -14054,11 +14069,11 @@
       </c>
       <c r="C111" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D111" s="35" t="n">
         <f t="shared" ref="D111:J111" si="63">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E111" s="35" t="n">
         <f t="shared" si="63"/>
@@ -14099,13 +14114,13 @@
       <c r="U111" s="35"/>
       <c r="V111" s="35" t="n">
         <f>VALUE(V3)</f>
-        <v>1460.0</v>
+        <v>1540.0</v>
       </c>
       <c r="W111" s="35"/>
       <c r="X111" s="35"/>
       <c r="Y111" s="38" t="n">
         <f>VALUE(V3)</f>
-        <v>1460.0</v>
+        <v>1540.0</v>
       </c>
       <c r="Z111" s="35" t="s">
         <v>840</v>
@@ -14120,11 +14135,11 @@
       </c>
       <c r="C112" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D112" s="35" t="n">
         <f t="shared" ref="D112:I112" si="64">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E112" s="35" t="n">
         <f t="shared" si="64"/>
@@ -14165,7 +14180,7 @@
       <c r="U112" s="35"/>
       <c r="V112" s="35" t="n">
         <f>VALUE(V2+100)</f>
-        <v>1559.0</v>
+        <v>1639.0</v>
       </c>
       <c r="W112" s="35"/>
       <c r="X112" s="35"/>
@@ -14185,11 +14200,11 @@
       </c>
       <c r="C113" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D113" s="35" t="n">
         <f t="shared" ref="D113:I113" si="65">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E113" s="35" t="n">
         <f t="shared" si="65"/>
@@ -14250,11 +14265,11 @@
       </c>
       <c r="C114" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D114" s="35" t="n">
         <f t="shared" ref="D114:J114" si="66">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E114" s="35" t="n">
         <f t="shared" si="66"/>
@@ -14314,11 +14329,11 @@
       </c>
       <c r="C115" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D115" s="35" t="n">
         <f t="shared" ref="D115:J115" si="67">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E115" s="35" t="n">
         <f t="shared" si="67"/>
@@ -14790,11 +14805,11 @@
       </c>
       <c r="C127" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D127" s="35" t="n">
         <f t="shared" ref="D127:J127" si="68">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E127" s="35" t="n">
         <f t="shared" si="68"/>
@@ -14835,7 +14850,7 @@
       <c r="U127" s="35"/>
       <c r="V127" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W127" s="35"/>
       <c r="X127" s="35"/>
@@ -14855,11 +14870,11 @@
       </c>
       <c r="C128" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D128" s="35" t="n">
         <f t="shared" ref="D128:J128" si="69">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E128" s="35" t="n">
         <f t="shared" si="69"/>
@@ -14900,7 +14915,7 @@
       <c r="U128" s="35"/>
       <c r="V128" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W128" s="35"/>
       <c r="X128" s="35"/>
@@ -14920,11 +14935,11 @@
       </c>
       <c r="C129" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D129" s="35" t="n">
         <f t="shared" ref="D129:J129" si="70">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E129" s="35" t="n">
         <f t="shared" si="70"/>
@@ -14965,7 +14980,7 @@
       <c r="U129" s="35"/>
       <c r="V129" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W129" s="35"/>
       <c r="X129" s="35"/>
@@ -14985,11 +15000,11 @@
       </c>
       <c r="C130" s="35" t="n">
         <f>VALUE(C2)</f>
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="D130" s="35" t="n">
         <f t="shared" ref="D130:J130" si="71">VALUE(D2)</f>
-        <v>335.0</v>
+        <v>343.0</v>
       </c>
       <c r="E130" s="35" t="n">
         <f t="shared" si="71"/>
@@ -15030,7 +15045,7 @@
       <c r="U130" s="35"/>
       <c r="V130" s="35" t="n">
         <f>VALUE(V2)</f>
-        <v>1459.0</v>
+        <v>1539.0</v>
       </c>
       <c r="W130" s="35"/>
       <c r="X130" s="35"/>
